--- a/Final_450_Love_Babbar/FINAL450.xlsx
+++ b/Final_450_Love_Babbar/FINAL450.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIIT\Documents\CS_codes\Final_450_Love_Babbar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1417,14 +1422,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1487,345 +1486,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1833,256 +1503,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2093,70 +1524,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2414,36 +1802,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" spans="2:2">
+    <row r="1" spans="1:3" ht="25.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="21" spans="1:3">
+    <row r="4" spans="1:3" ht="21">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2454,12 +1842,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="1:3">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="21" spans="1:3">
+    <row r="6" spans="1:3" ht="21">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2470,7 +1858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="21" spans="1:3">
+    <row r="7" spans="1:3" ht="21">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2478,10 +1866,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" ht="21" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2492,7 +1880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="21" spans="1:3">
+    <row r="9" spans="1:3" ht="21">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -2503,7 +1891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" ht="21" spans="1:3">
+    <row r="10" spans="1:3" ht="21">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2514,7 +1902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" ht="21" spans="1:3">
+    <row r="11" spans="1:3" ht="21">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -2525,7 +1913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="21" spans="1:3">
+    <row r="12" spans="1:3" ht="21">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -2536,7 +1924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" ht="21" spans="1:3">
+    <row r="13" spans="1:3" ht="21">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -2547,7 +1935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" ht="21" spans="1:3">
+    <row r="14" spans="1:3" ht="21">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -2558,7 +1946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" ht="21" spans="1:3">
+    <row r="15" spans="1:3" ht="21">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -2569,7 +1957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" ht="21" spans="1:3">
+    <row r="16" spans="1:3" ht="21">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2580,7 +1968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" ht="21" spans="1:3">
+    <row r="17" spans="1:3" ht="21">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -2591,7 +1979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" ht="21" spans="1:3">
+    <row r="18" spans="1:3" ht="21">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2602,7 +1990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" ht="21" spans="1:3">
+    <row r="19" spans="1:3" ht="21">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2613,7 +2001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" ht="21" spans="1:3">
+    <row r="20" spans="1:3" ht="21">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2624,7 +2012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" ht="21" spans="1:3">
+    <row r="21" spans="1:3" ht="21">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2635,7 +2023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" ht="21" spans="1:3">
+    <row r="22" spans="1:3" ht="21">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2646,7 +2034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="21" spans="1:3">
+    <row r="23" spans="1:3" ht="21">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2657,7 +2045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" ht="21" spans="1:3">
+    <row r="24" spans="1:3" ht="21">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2668,7 +2056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" ht="21" spans="1:3">
+    <row r="25" spans="1:3" ht="21">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2679,7 +2067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" ht="21" spans="1:3">
+    <row r="26" spans="1:3" ht="21">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2690,7 +2078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" ht="21" spans="1:3">
+    <row r="27" spans="1:3" ht="21">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2701,7 +2089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" ht="21" spans="1:3">
+    <row r="28" spans="1:3" ht="21">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2712,7 +2100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" ht="21" spans="1:3">
+    <row r="29" spans="1:3" ht="21">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2723,7 +2111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" ht="21" spans="1:3">
+    <row r="30" spans="1:3" ht="21">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2734,7 +2122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" ht="21" spans="1:3">
+    <row r="31" spans="1:3" ht="21">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2745,7 +2133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" ht="21" spans="1:3">
+    <row r="32" spans="1:3" ht="21">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2756,7 +2144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" ht="21" spans="1:3">
+    <row r="33" spans="1:3" ht="21">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2767,7 +2155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" ht="21" spans="1:3">
+    <row r="34" spans="1:3" ht="21">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2778,7 +2166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" ht="21" spans="1:3">
+    <row r="35" spans="1:3" ht="21">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2789,7 +2177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" ht="21" spans="1:3">
+    <row r="36" spans="1:3" ht="21">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2800,7 +2188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" ht="21" spans="1:3">
+    <row r="37" spans="1:3" ht="21">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2811,7 +2199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" ht="21" spans="1:3">
+    <row r="38" spans="1:3" ht="21">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2822,7 +2210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" ht="21" spans="1:3">
+    <row r="39" spans="1:3" ht="21">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2833,7 +2221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" ht="21" spans="1:3">
+    <row r="40" spans="1:3" ht="21">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2844,7 +2232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" ht="21" spans="1:3">
+    <row r="41" spans="1:3" ht="21">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2855,20 +2243,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" ht="21" spans="2:3">
+    <row r="42" spans="1:3" ht="21">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" ht="21" spans="1:3">
+    <row r="43" spans="1:3" ht="21">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" ht="21" spans="1:3">
+    <row r="44" spans="1:3" ht="21">
       <c r="A44" s="9" t="s">
         <v>44</v>
       </c>
@@ -2879,7 +2267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" ht="21" spans="1:3">
+    <row r="45" spans="1:3" ht="21">
       <c r="A45" s="9" t="s">
         <v>44</v>
       </c>
@@ -2890,7 +2278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" ht="21" spans="1:3">
+    <row r="46" spans="1:3" ht="21">
       <c r="A46" s="9" t="s">
         <v>44</v>
       </c>
@@ -2901,7 +2289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" ht="21" spans="1:3">
+    <row r="47" spans="1:3" ht="21">
       <c r="A47" s="9" t="s">
         <v>44</v>
       </c>
@@ -2912,7 +2300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" ht="21" spans="1:3">
+    <row r="48" spans="1:3" ht="21">
       <c r="A48" s="9" t="s">
         <v>44</v>
       </c>
@@ -2923,7 +2311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" ht="21" spans="1:3">
+    <row r="49" spans="1:3" ht="21">
       <c r="A49" s="9" t="s">
         <v>44</v>
       </c>
@@ -2934,7 +2322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" ht="21" spans="1:3">
+    <row r="50" spans="1:3" ht="21">
       <c r="A50" s="9" t="s">
         <v>44</v>
       </c>
@@ -2945,7 +2333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" ht="21" spans="1:3">
+    <row r="51" spans="1:3" ht="21">
       <c r="A51" s="9" t="s">
         <v>44</v>
       </c>
@@ -2956,7 +2344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" ht="21" spans="1:3">
+    <row r="52" spans="1:3" ht="21">
       <c r="A52" s="9" t="s">
         <v>44</v>
       </c>
@@ -2967,7 +2355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" ht="21" spans="1:3">
+    <row r="53" spans="1:3" ht="21">
       <c r="A53" s="9" t="s">
         <v>44</v>
       </c>
@@ -2978,12 +2366,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" ht="21" spans="1:3">
+    <row r="55" spans="1:3" ht="21">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" ht="21" spans="1:3">
+    <row r="56" spans="1:3" ht="21">
       <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
@@ -2994,7 +2382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" ht="21" spans="1:3">
+    <row r="57" spans="1:3" ht="21">
       <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
@@ -3005,7 +2393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" ht="21" spans="1:3">
+    <row r="58" spans="1:3" ht="21">
       <c r="A58" s="6" t="s">
         <v>55</v>
       </c>
@@ -3016,7 +2404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" ht="21" spans="1:3">
+    <row r="59" spans="1:3" ht="21">
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
@@ -3027,7 +2415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" ht="21" spans="1:3">
+    <row r="60" spans="1:3" ht="21">
       <c r="A60" s="6" t="s">
         <v>55</v>
       </c>
@@ -3038,7 +2426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" ht="21" spans="1:3">
+    <row r="61" spans="1:3" ht="21">
       <c r="A61" s="6" t="s">
         <v>55</v>
       </c>
@@ -3049,7 +2437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" ht="21" spans="1:3">
+    <row r="62" spans="1:3" ht="21">
       <c r="A62" s="6" t="s">
         <v>55</v>
       </c>
@@ -3060,7 +2448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" ht="21" spans="1:3">
+    <row r="63" spans="1:3" ht="21">
       <c r="A63" s="6" t="s">
         <v>55</v>
       </c>
@@ -3071,7 +2459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" ht="21" spans="1:3">
+    <row r="64" spans="1:3" ht="21">
       <c r="A64" s="6" t="s">
         <v>55</v>
       </c>
@@ -3082,7 +2470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" ht="21" spans="1:3">
+    <row r="65" spans="1:3" ht="21">
       <c r="A65" s="6" t="s">
         <v>55</v>
       </c>
@@ -3093,7 +2481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" ht="21" spans="1:3">
+    <row r="66" spans="1:3" ht="21">
       <c r="A66" s="6" t="s">
         <v>55</v>
       </c>
@@ -3104,7 +2492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" ht="21" spans="1:3">
+    <row r="67" spans="1:3" ht="21">
       <c r="A67" s="6" t="s">
         <v>55</v>
       </c>
@@ -3115,7 +2503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" ht="21" spans="1:3">
+    <row r="68" spans="1:3" ht="21">
       <c r="A68" s="6" t="s">
         <v>55</v>
       </c>
@@ -3126,7 +2514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" ht="21" spans="1:3">
+    <row r="69" spans="1:3" ht="21">
       <c r="A69" s="6" t="s">
         <v>55</v>
       </c>
@@ -3137,7 +2525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" ht="21" spans="1:3">
+    <row r="70" spans="1:3" ht="21">
       <c r="A70" s="6" t="s">
         <v>55</v>
       </c>
@@ -3148,7 +2536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" ht="21" spans="1:3">
+    <row r="71" spans="1:3" ht="21">
       <c r="A71" s="6" t="s">
         <v>55</v>
       </c>
@@ -3159,7 +2547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" ht="21" spans="1:3">
+    <row r="72" spans="1:3" ht="21">
       <c r="A72" s="6" t="s">
         <v>55</v>
       </c>
@@ -3170,7 +2558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" ht="21" spans="1:3">
+    <row r="73" spans="1:3" ht="21">
       <c r="A73" s="6" t="s">
         <v>55</v>
       </c>
@@ -3181,7 +2569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" ht="21" spans="1:3">
+    <row r="74" spans="1:3" ht="21">
       <c r="A74" s="6" t="s">
         <v>55</v>
       </c>
@@ -3192,7 +2580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" ht="21" spans="1:3">
+    <row r="75" spans="1:3" ht="21">
       <c r="A75" s="6" t="s">
         <v>55</v>
       </c>
@@ -3203,7 +2591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" ht="21" spans="1:3">
+    <row r="76" spans="1:3" ht="21">
       <c r="A76" s="6" t="s">
         <v>55</v>
       </c>
@@ -3214,7 +2602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" ht="21" spans="1:3">
+    <row r="77" spans="1:3" ht="21">
       <c r="A77" s="6" t="s">
         <v>55</v>
       </c>
@@ -3225,7 +2613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" ht="21" spans="1:3">
+    <row r="78" spans="1:3" ht="21">
       <c r="A78" s="6" t="s">
         <v>55</v>
       </c>
@@ -3236,7 +2624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" ht="21" spans="1:3">
+    <row r="79" spans="1:3" ht="21">
       <c r="A79" s="6" t="s">
         <v>55</v>
       </c>
@@ -3247,7 +2635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" ht="21" spans="1:3">
+    <row r="80" spans="1:3" ht="21">
       <c r="A80" s="6" t="s">
         <v>55</v>
       </c>
@@ -3258,7 +2646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" ht="21" spans="1:3">
+    <row r="81" spans="1:3" ht="21">
       <c r="A81" s="6" t="s">
         <v>55</v>
       </c>
@@ -3269,7 +2657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" ht="21" spans="1:3">
+    <row r="82" spans="1:3" ht="21">
       <c r="A82" s="6" t="s">
         <v>55</v>
       </c>
@@ -3280,7 +2668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" ht="21" spans="1:3">
+    <row r="83" spans="1:3" ht="21">
       <c r="A83" s="6" t="s">
         <v>55</v>
       </c>
@@ -3291,7 +2679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" ht="21" spans="1:3">
+    <row r="84" spans="1:3" ht="21">
       <c r="A84" s="6" t="s">
         <v>55</v>
       </c>
@@ -3302,7 +2690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" ht="21" spans="1:3">
+    <row r="85" spans="1:3" ht="21">
       <c r="A85" s="6" t="s">
         <v>55</v>
       </c>
@@ -3313,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" ht="21" spans="1:3">
+    <row r="86" spans="1:3" ht="21">
       <c r="A86" s="6" t="s">
         <v>55</v>
       </c>
@@ -3324,7 +2712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" ht="21" spans="1:3">
+    <row r="87" spans="1:3" ht="21">
       <c r="A87" s="6" t="s">
         <v>55</v>
       </c>
@@ -3335,7 +2723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" ht="21" spans="1:3">
+    <row r="88" spans="1:3" ht="21">
       <c r="A88" s="6" t="s">
         <v>55</v>
       </c>
@@ -3346,7 +2734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" ht="21" spans="1:3">
+    <row r="89" spans="1:3" ht="21">
       <c r="A89" s="6" t="s">
         <v>55</v>
       </c>
@@ -3357,7 +2745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" ht="21" spans="1:3">
+    <row r="90" spans="1:3" ht="21">
       <c r="A90" s="6" t="s">
         <v>55</v>
       </c>
@@ -3368,7 +2756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" ht="21" spans="1:3">
+    <row r="91" spans="1:3" ht="21">
       <c r="A91" s="6" t="s">
         <v>55</v>
       </c>
@@ -3379,7 +2767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" ht="21" spans="1:3">
+    <row r="92" spans="1:3" ht="21">
       <c r="A92" s="6" t="s">
         <v>55</v>
       </c>
@@ -3390,7 +2778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" ht="21" spans="1:3">
+    <row r="93" spans="1:3" ht="21">
       <c r="A93" s="6" t="s">
         <v>55</v>
       </c>
@@ -3401,7 +2789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" ht="21" spans="1:3">
+    <row r="94" spans="1:3" ht="21">
       <c r="A94" s="6" t="s">
         <v>55</v>
       </c>
@@ -3412,7 +2800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" ht="21" spans="1:3">
+    <row r="95" spans="1:3" ht="21">
       <c r="A95" s="6" t="s">
         <v>55</v>
       </c>
@@ -3423,7 +2811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" ht="21" spans="1:3">
+    <row r="96" spans="1:3" ht="21">
       <c r="A96" s="6" t="s">
         <v>55</v>
       </c>
@@ -3434,7 +2822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" ht="21" spans="1:3">
+    <row r="97" spans="1:3" ht="21">
       <c r="A97" s="6" t="s">
         <v>55</v>
       </c>
@@ -3445,7 +2833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" ht="21" spans="1:3">
+    <row r="98" spans="1:3" ht="21">
       <c r="A98" s="6" t="s">
         <v>55</v>
       </c>
@@ -3456,12 +2844,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" ht="21" spans="1:3">
+    <row r="100" spans="1:3" ht="21">
       <c r="A100" s="9"/>
       <c r="B100" s="8"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" ht="21" spans="1:3">
+    <row r="101" spans="1:3" ht="21">
       <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
@@ -3472,7 +2860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" ht="21" spans="1:3">
+    <row r="102" spans="1:3" ht="21">
       <c r="A102" s="6" t="s">
         <v>99</v>
       </c>
@@ -3483,7 +2871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" ht="21" spans="1:3">
+    <row r="103" spans="1:3" ht="21">
       <c r="A103" s="6" t="s">
         <v>99</v>
       </c>
@@ -3494,7 +2882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" ht="21" spans="1:3">
+    <row r="104" spans="1:3" ht="21">
       <c r="A104" s="6" t="s">
         <v>99</v>
       </c>
@@ -3505,7 +2893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" ht="21" spans="1:3">
+    <row r="105" spans="1:3" ht="21">
       <c r="A105" s="6" t="s">
         <v>99</v>
       </c>
@@ -3516,7 +2904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" ht="21" spans="1:3">
+    <row r="106" spans="1:3" ht="21">
       <c r="A106" s="6" t="s">
         <v>99</v>
       </c>
@@ -3527,7 +2915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" ht="21" spans="1:3">
+    <row r="107" spans="1:3" ht="21">
       <c r="A107" s="6" t="s">
         <v>99</v>
       </c>
@@ -3538,7 +2926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" ht="21" spans="1:3">
+    <row r="108" spans="1:3" ht="21">
       <c r="A108" s="6" t="s">
         <v>99</v>
       </c>
@@ -3549,7 +2937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" ht="21" spans="1:3">
+    <row r="109" spans="1:3" ht="21">
       <c r="A109" s="6" t="s">
         <v>99</v>
       </c>
@@ -3560,7 +2948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" ht="21" spans="1:3">
+    <row r="110" spans="1:3" ht="21">
       <c r="A110" s="6" t="s">
         <v>99</v>
       </c>
@@ -3571,7 +2959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" ht="21" spans="1:3">
+    <row r="111" spans="1:3" ht="21">
       <c r="A111" s="6" t="s">
         <v>99</v>
       </c>
@@ -3582,7 +2970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" ht="21" spans="1:3">
+    <row r="112" spans="1:3" ht="21">
       <c r="A112" s="6" t="s">
         <v>99</v>
       </c>
@@ -3593,7 +2981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" ht="21" spans="1:3">
+    <row r="113" spans="1:3" ht="21">
       <c r="A113" s="6" t="s">
         <v>99</v>
       </c>
@@ -3604,7 +2992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" ht="21" spans="1:3">
+    <row r="114" spans="1:3" ht="21">
       <c r="A114" s="6" t="s">
         <v>99</v>
       </c>
@@ -3615,7 +3003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" ht="21" spans="1:3">
+    <row r="115" spans="1:3" ht="21">
       <c r="A115" s="6" t="s">
         <v>99</v>
       </c>
@@ -3626,7 +3014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" ht="21" spans="1:3">
+    <row r="116" spans="1:3" ht="21">
       <c r="A116" s="6" t="s">
         <v>99</v>
       </c>
@@ -3637,7 +3025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" ht="21" spans="1:3">
+    <row r="117" spans="1:3" ht="21">
       <c r="A117" s="6" t="s">
         <v>99</v>
       </c>
@@ -3648,7 +3036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" ht="21" spans="1:3">
+    <row r="118" spans="1:3" ht="21">
       <c r="A118" s="6" t="s">
         <v>99</v>
       </c>
@@ -3659,7 +3047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" ht="21" spans="1:3">
+    <row r="119" spans="1:3" ht="21">
       <c r="A119" s="6" t="s">
         <v>99</v>
       </c>
@@ -3670,7 +3058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" ht="21" spans="1:3">
+    <row r="120" spans="1:3" ht="21">
       <c r="A120" s="6" t="s">
         <v>99</v>
       </c>
@@ -3681,7 +3069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" ht="21" spans="1:3">
+    <row r="121" spans="1:3" ht="21">
       <c r="A121" s="6" t="s">
         <v>99</v>
       </c>
@@ -3692,7 +3080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" ht="21" spans="1:3">
+    <row r="122" spans="1:3" ht="21">
       <c r="A122" s="6" t="s">
         <v>99</v>
       </c>
@@ -3703,7 +3091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" ht="21" spans="1:3">
+    <row r="123" spans="1:3" ht="21">
       <c r="A123" s="6" t="s">
         <v>99</v>
       </c>
@@ -3714,7 +3102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" ht="21" spans="1:3">
+    <row r="124" spans="1:3" ht="21">
       <c r="A124" s="6" t="s">
         <v>99</v>
       </c>
@@ -3725,7 +3113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" ht="21" spans="1:3">
+    <row r="125" spans="1:3" ht="21">
       <c r="A125" s="6" t="s">
         <v>99</v>
       </c>
@@ -3736,7 +3124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" ht="21" spans="1:3">
+    <row r="126" spans="1:3" ht="21">
       <c r="A126" s="6" t="s">
         <v>99</v>
       </c>
@@ -3747,7 +3135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" ht="21" spans="1:3">
+    <row r="127" spans="1:3" ht="21">
       <c r="A127" s="6" t="s">
         <v>99</v>
       </c>
@@ -3758,7 +3146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" ht="21" spans="1:3">
+    <row r="128" spans="1:3" ht="21">
       <c r="A128" s="6" t="s">
         <v>99</v>
       </c>
@@ -3769,7 +3157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" ht="21" spans="1:3">
+    <row r="129" spans="1:3" ht="21">
       <c r="A129" s="6" t="s">
         <v>99</v>
       </c>
@@ -3780,7 +3168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" ht="21" spans="1:3">
+    <row r="130" spans="1:3" ht="21">
       <c r="A130" s="6" t="s">
         <v>99</v>
       </c>
@@ -3791,7 +3179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" ht="21" spans="1:3">
+    <row r="131" spans="1:3" ht="21">
       <c r="A131" s="6" t="s">
         <v>99</v>
       </c>
@@ -3802,7 +3190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" ht="21" spans="1:3">
+    <row r="132" spans="1:3" ht="21">
       <c r="A132" s="6" t="s">
         <v>99</v>
       </c>
@@ -3813,7 +3201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" ht="21" spans="1:3">
+    <row r="133" spans="1:3" ht="21">
       <c r="A133" s="6" t="s">
         <v>99</v>
       </c>
@@ -3824,7 +3212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" ht="21" spans="1:3">
+    <row r="134" spans="1:3" ht="21">
       <c r="A134" s="6" t="s">
         <v>99</v>
       </c>
@@ -3835,7 +3223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" ht="21" spans="1:3">
+    <row r="135" spans="1:3" ht="21">
       <c r="A135" s="6" t="s">
         <v>99</v>
       </c>
@@ -3846,7 +3234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" ht="21" spans="1:3">
+    <row r="136" spans="1:3" ht="21">
       <c r="A136" s="6" t="s">
         <v>99</v>
       </c>
@@ -3857,11 +3245,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" ht="21" spans="2:3">
+    <row r="138" spans="1:3" ht="21">
       <c r="B138" s="8"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" ht="21" spans="1:3">
+    <row r="139" spans="1:3" ht="21">
       <c r="A139" s="9" t="s">
         <v>136</v>
       </c>
@@ -3872,7 +3260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" ht="21" spans="1:3">
+    <row r="140" spans="1:3" ht="21">
       <c r="A140" s="9" t="s">
         <v>136</v>
       </c>
@@ -3883,7 +3271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" ht="21" spans="1:3">
+    <row r="141" spans="1:3" ht="21">
       <c r="A141" s="9" t="s">
         <v>136</v>
       </c>
@@ -3894,7 +3282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" ht="21" spans="1:3">
+    <row r="142" spans="1:3" ht="21">
       <c r="A142" s="9" t="s">
         <v>136</v>
       </c>
@@ -3905,7 +3293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" ht="21" spans="1:3">
+    <row r="143" spans="1:3" ht="21">
       <c r="A143" s="9" t="s">
         <v>136</v>
       </c>
@@ -3916,7 +3304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" ht="21" spans="1:3">
+    <row r="144" spans="1:3" ht="21">
       <c r="A144" s="9" t="s">
         <v>136</v>
       </c>
@@ -3927,7 +3315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" ht="21" spans="1:3">
+    <row r="145" spans="1:3" ht="21">
       <c r="A145" s="9" t="s">
         <v>136</v>
       </c>
@@ -3938,7 +3326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" ht="21" spans="1:3">
+    <row r="146" spans="1:3" ht="21">
       <c r="A146" s="9" t="s">
         <v>136</v>
       </c>
@@ -3949,7 +3337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" ht="21" spans="1:3">
+    <row r="147" spans="1:3" ht="21">
       <c r="A147" s="9" t="s">
         <v>136</v>
       </c>
@@ -3960,7 +3348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" ht="21" spans="1:3">
+    <row r="148" spans="1:3" ht="21">
       <c r="A148" s="9" t="s">
         <v>136</v>
       </c>
@@ -3971,7 +3359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" ht="21" spans="1:3">
+    <row r="149" spans="1:3" ht="21">
       <c r="A149" s="9" t="s">
         <v>136</v>
       </c>
@@ -3982,7 +3370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" ht="21" spans="1:3">
+    <row r="150" spans="1:3" ht="21">
       <c r="A150" s="9" t="s">
         <v>136</v>
       </c>
@@ -3993,7 +3381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" ht="21" spans="1:3">
+    <row r="151" spans="1:3" ht="21">
       <c r="A151" s="9" t="s">
         <v>136</v>
       </c>
@@ -4004,7 +3392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" ht="21" spans="1:3">
+    <row r="152" spans="1:3" ht="21">
       <c r="A152" s="9" t="s">
         <v>136</v>
       </c>
@@ -4015,7 +3403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" ht="21" spans="1:3">
+    <row r="153" spans="1:3" ht="21">
       <c r="A153" s="9" t="s">
         <v>136</v>
       </c>
@@ -4026,7 +3414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" ht="21" spans="1:3">
+    <row r="154" spans="1:3" ht="21">
       <c r="A154" s="9" t="s">
         <v>136</v>
       </c>
@@ -4037,7 +3425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" ht="21" spans="1:3">
+    <row r="155" spans="1:3" ht="21">
       <c r="A155" s="9" t="s">
         <v>136</v>
       </c>
@@ -4048,7 +3436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" ht="21" spans="1:3">
+    <row r="156" spans="1:3" ht="21">
       <c r="A156" s="9" t="s">
         <v>136</v>
       </c>
@@ -4059,7 +3447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" ht="21" spans="1:3">
+    <row r="157" spans="1:3" ht="21">
       <c r="A157" s="9" t="s">
         <v>136</v>
       </c>
@@ -4070,7 +3458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" ht="21" spans="1:3">
+    <row r="158" spans="1:3" ht="21">
       <c r="A158" s="9" t="s">
         <v>136</v>
       </c>
@@ -4081,7 +3469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" ht="21" spans="1:3">
+    <row r="159" spans="1:3" ht="21">
       <c r="A159" s="9" t="s">
         <v>136</v>
       </c>
@@ -4092,7 +3480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" ht="21" spans="1:3">
+    <row r="160" spans="1:3" ht="21">
       <c r="A160" s="9" t="s">
         <v>136</v>
       </c>
@@ -4103,7 +3491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" ht="21" spans="1:3">
+    <row r="161" spans="1:3" ht="21">
       <c r="A161" s="9" t="s">
         <v>136</v>
       </c>
@@ -4114,7 +3502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" ht="21" spans="1:3">
+    <row r="162" spans="1:3" ht="21">
       <c r="A162" s="9" t="s">
         <v>136</v>
       </c>
@@ -4125,7 +3513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" ht="21" spans="1:3">
+    <row r="163" spans="1:3" ht="21">
       <c r="A163" s="9" t="s">
         <v>136</v>
       </c>
@@ -4136,7 +3524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" ht="21" spans="1:3">
+    <row r="164" spans="1:3" ht="21">
       <c r="A164" s="9" t="s">
         <v>136</v>
       </c>
@@ -4147,7 +3535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" ht="21" spans="1:3">
+    <row r="165" spans="1:3" ht="21">
       <c r="A165" s="9" t="s">
         <v>136</v>
       </c>
@@ -4158,7 +3546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" ht="21" spans="1:3">
+    <row r="166" spans="1:3" ht="21">
       <c r="A166" s="9" t="s">
         <v>136</v>
       </c>
@@ -4169,7 +3557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" ht="21" spans="1:3">
+    <row r="167" spans="1:3" ht="21">
       <c r="A167" s="9" t="s">
         <v>136</v>
       </c>
@@ -4180,7 +3568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" ht="21" spans="1:3">
+    <row r="168" spans="1:3" ht="21">
       <c r="A168" s="9" t="s">
         <v>136</v>
       </c>
@@ -4191,7 +3579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" ht="21" spans="1:3">
+    <row r="169" spans="1:3" ht="21">
       <c r="A169" s="9" t="s">
         <v>136</v>
       </c>
@@ -4202,7 +3590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" ht="21" spans="1:3">
+    <row r="170" spans="1:3" ht="21">
       <c r="A170" s="9" t="s">
         <v>136</v>
       </c>
@@ -4213,7 +3601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" ht="21" spans="1:3">
+    <row r="171" spans="1:3" ht="21">
       <c r="A171" s="9" t="s">
         <v>136</v>
       </c>
@@ -4224,7 +3612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" ht="21" spans="1:3">
+    <row r="172" spans="1:3" ht="21">
       <c r="A172" s="9" t="s">
         <v>136</v>
       </c>
@@ -4235,7 +3623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" ht="21" spans="1:3">
+    <row r="173" spans="1:3" ht="21">
       <c r="A173" s="9" t="s">
         <v>136</v>
       </c>
@@ -4246,7 +3634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" ht="21" spans="1:3">
+    <row r="174" spans="1:3" ht="21">
       <c r="A174" s="9" t="s">
         <v>136</v>
       </c>
@@ -4257,11 +3645,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" ht="21" spans="2:3">
+    <row r="176" spans="1:3" ht="21">
       <c r="B176" s="8"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" ht="21" spans="1:3">
+    <row r="177" spans="1:3" ht="21">
       <c r="A177" s="6" t="s">
         <v>173</v>
       </c>
@@ -4272,7 +3660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" ht="21" spans="1:3">
+    <row r="178" spans="1:3" ht="21">
       <c r="A178" s="6" t="s">
         <v>173</v>
       </c>
@@ -4283,7 +3671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" ht="21" spans="1:3">
+    <row r="179" spans="1:3" ht="21">
       <c r="A179" s="6" t="s">
         <v>173</v>
       </c>
@@ -4294,7 +3682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" ht="21" spans="1:3">
+    <row r="180" spans="1:3" ht="21">
       <c r="A180" s="6" t="s">
         <v>173</v>
       </c>
@@ -4305,7 +3693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" ht="21" spans="1:3">
+    <row r="181" spans="1:3" ht="21">
       <c r="A181" s="6" t="s">
         <v>173</v>
       </c>
@@ -4316,7 +3704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" ht="21" spans="1:3">
+    <row r="182" spans="1:3" ht="21">
       <c r="A182" s="6" t="s">
         <v>173</v>
       </c>
@@ -4327,7 +3715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" ht="21" spans="1:3">
+    <row r="183" spans="1:3" ht="21">
       <c r="A183" s="6" t="s">
         <v>173</v>
       </c>
@@ -4338,7 +3726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" ht="21" spans="1:3">
+    <row r="184" spans="1:3" ht="21">
       <c r="A184" s="6" t="s">
         <v>173</v>
       </c>
@@ -4349,7 +3737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" ht="21" spans="1:3">
+    <row r="185" spans="1:3" ht="21">
       <c r="A185" s="6" t="s">
         <v>173</v>
       </c>
@@ -4360,7 +3748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" ht="21" spans="1:3">
+    <row r="186" spans="1:3" ht="21">
       <c r="A186" s="6" t="s">
         <v>173</v>
       </c>
@@ -4371,7 +3759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" ht="21" spans="1:3">
+    <row r="187" spans="1:3" ht="21">
       <c r="A187" s="6" t="s">
         <v>173</v>
       </c>
@@ -4382,7 +3770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" ht="21" spans="1:3">
+    <row r="188" spans="1:3" ht="21">
       <c r="A188" s="6" t="s">
         <v>173</v>
       </c>
@@ -4393,7 +3781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" ht="21" spans="1:3">
+    <row r="189" spans="1:3" ht="21">
       <c r="A189" s="6" t="s">
         <v>173</v>
       </c>
@@ -4404,7 +3792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" ht="21" spans="1:3">
+    <row r="190" spans="1:3" ht="21">
       <c r="A190" s="6" t="s">
         <v>173</v>
       </c>
@@ -4415,7 +3803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" ht="21" spans="1:3">
+    <row r="191" spans="1:3" ht="21">
       <c r="A191" s="6" t="s">
         <v>173</v>
       </c>
@@ -4426,7 +3814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" ht="21" spans="1:3">
+    <row r="192" spans="1:3" ht="21">
       <c r="A192" s="6" t="s">
         <v>173</v>
       </c>
@@ -4437,7 +3825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" ht="21" spans="1:3">
+    <row r="193" spans="1:3" ht="21">
       <c r="A193" s="6" t="s">
         <v>173</v>
       </c>
@@ -4448,7 +3836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" ht="21" spans="1:3">
+    <row r="194" spans="1:3" ht="21">
       <c r="A194" s="6" t="s">
         <v>173</v>
       </c>
@@ -4459,7 +3847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" ht="21" spans="1:3">
+    <row r="195" spans="1:3" ht="21">
       <c r="A195" s="6" t="s">
         <v>173</v>
       </c>
@@ -4470,7 +3858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" ht="21" spans="1:3">
+    <row r="196" spans="1:3" ht="21">
       <c r="A196" s="6" t="s">
         <v>173</v>
       </c>
@@ -4481,7 +3869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" ht="21" spans="1:3">
+    <row r="197" spans="1:3" ht="21">
       <c r="A197" s="6" t="s">
         <v>173</v>
       </c>
@@ -4492,7 +3880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" ht="21" spans="1:3">
+    <row r="198" spans="1:3" ht="21">
       <c r="A198" s="6" t="s">
         <v>173</v>
       </c>
@@ -4503,7 +3891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" ht="21" spans="1:3">
+    <row r="199" spans="1:3" ht="21">
       <c r="A199" s="6" t="s">
         <v>173</v>
       </c>
@@ -4514,7 +3902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" ht="21" spans="1:3">
+    <row r="200" spans="1:3" ht="21">
       <c r="A200" s="6" t="s">
         <v>173</v>
       </c>
@@ -4525,7 +3913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" ht="21" spans="1:3">
+    <row r="201" spans="1:3" ht="21">
       <c r="A201" s="6" t="s">
         <v>173</v>
       </c>
@@ -4536,7 +3924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" ht="21" spans="1:3">
+    <row r="202" spans="1:3" ht="21">
       <c r="A202" s="6" t="s">
         <v>173</v>
       </c>
@@ -4547,7 +3935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" ht="21" spans="1:3">
+    <row r="203" spans="1:3" ht="21">
       <c r="A203" s="6" t="s">
         <v>173</v>
       </c>
@@ -4558,7 +3946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" ht="21" spans="1:3">
+    <row r="204" spans="1:3" ht="21">
       <c r="A204" s="6" t="s">
         <v>173</v>
       </c>
@@ -4569,7 +3957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" ht="21" spans="1:3">
+    <row r="205" spans="1:3" ht="21">
       <c r="A205" s="6" t="s">
         <v>173</v>
       </c>
@@ -4580,7 +3968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" ht="21" spans="1:3">
+    <row r="206" spans="1:3" ht="21">
       <c r="A206" s="6" t="s">
         <v>173</v>
       </c>
@@ -4591,7 +3979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" ht="21" spans="1:3">
+    <row r="207" spans="1:3" ht="21">
       <c r="A207" s="6" t="s">
         <v>173</v>
       </c>
@@ -4602,7 +3990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" ht="21" spans="1:3">
+    <row r="208" spans="1:3" ht="21">
       <c r="A208" s="6" t="s">
         <v>173</v>
       </c>
@@ -4613,7 +4001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" ht="21" spans="1:3">
+    <row r="209" spans="1:3" ht="21">
       <c r="A209" s="6" t="s">
         <v>173</v>
       </c>
@@ -4624,7 +4012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" ht="21" spans="1:3">
+    <row r="210" spans="1:3" ht="21">
       <c r="A210" s="6" t="s">
         <v>173</v>
       </c>
@@ -4635,7 +4023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" ht="21" spans="1:3">
+    <row r="211" spans="1:3" ht="21">
       <c r="A211" s="6" t="s">
         <v>173</v>
       </c>
@@ -4646,17 +4034,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" ht="21" spans="1:3">
+    <row r="212" spans="1:3" ht="21">
       <c r="A212" s="9"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" ht="21" spans="1:3">
+    <row r="213" spans="1:3" ht="21">
       <c r="A213" s="9"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" ht="21" spans="1:3">
+    <row r="214" spans="1:3" ht="21">
       <c r="A214" s="6" t="s">
         <v>209</v>
       </c>
@@ -4667,7 +4055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" ht="21" spans="1:3">
+    <row r="215" spans="1:3" ht="21">
       <c r="A215" s="6" t="s">
         <v>209</v>
       </c>
@@ -4678,7 +4066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" ht="21" spans="1:3">
+    <row r="216" spans="1:3" ht="21">
       <c r="A216" s="6" t="s">
         <v>209</v>
       </c>
@@ -4689,7 +4077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" ht="21" spans="1:3">
+    <row r="217" spans="1:3" ht="21">
       <c r="A217" s="6" t="s">
         <v>209</v>
       </c>
@@ -4700,7 +4088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" ht="21" spans="1:3">
+    <row r="218" spans="1:3" ht="21">
       <c r="A218" s="6" t="s">
         <v>209</v>
       </c>
@@ -4711,7 +4099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" ht="21" spans="1:3">
+    <row r="219" spans="1:3" ht="21">
       <c r="A219" s="6" t="s">
         <v>209</v>
       </c>
@@ -4722,7 +4110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" ht="21" spans="1:3">
+    <row r="220" spans="1:3" ht="21">
       <c r="A220" s="6" t="s">
         <v>209</v>
       </c>
@@ -4733,7 +4121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" ht="21" spans="1:3">
+    <row r="221" spans="1:3" ht="21">
       <c r="A221" s="6" t="s">
         <v>209</v>
       </c>
@@ -4744,7 +4132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" ht="21" spans="1:3">
+    <row r="222" spans="1:3" ht="21">
       <c r="A222" s="6" t="s">
         <v>209</v>
       </c>
@@ -4755,7 +4143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" ht="21" spans="1:3">
+    <row r="223" spans="1:3" ht="21">
       <c r="A223" s="6" t="s">
         <v>209</v>
       </c>
@@ -4766,7 +4154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" ht="21" spans="1:3">
+    <row r="224" spans="1:3" ht="21">
       <c r="A224" s="6" t="s">
         <v>209</v>
       </c>
@@ -4777,7 +4165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" ht="21" spans="1:3">
+    <row r="225" spans="1:3" ht="21">
       <c r="A225" s="6" t="s">
         <v>209</v>
       </c>
@@ -4788,7 +4176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" ht="21" spans="1:3">
+    <row r="226" spans="1:3" ht="21">
       <c r="A226" s="6" t="s">
         <v>209</v>
       </c>
@@ -4799,7 +4187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" ht="21" spans="1:3">
+    <row r="227" spans="1:3" ht="21">
       <c r="A227" s="6" t="s">
         <v>209</v>
       </c>
@@ -4810,7 +4198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" ht="21" spans="1:3">
+    <row r="228" spans="1:3" ht="21">
       <c r="A228" s="6" t="s">
         <v>209</v>
       </c>
@@ -4821,7 +4209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" ht="21" spans="1:3">
+    <row r="229" spans="1:3" ht="21">
       <c r="A229" s="6" t="s">
         <v>209</v>
       </c>
@@ -4832,7 +4220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" ht="21" spans="1:3">
+    <row r="230" spans="1:3" ht="21">
       <c r="A230" s="6" t="s">
         <v>209</v>
       </c>
@@ -4843,7 +4231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" ht="21" spans="1:3">
+    <row r="231" spans="1:3" ht="21">
       <c r="A231" s="6" t="s">
         <v>209</v>
       </c>
@@ -4854,7 +4242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" ht="21" spans="1:3">
+    <row r="232" spans="1:3" ht="21">
       <c r="A232" s="6" t="s">
         <v>209</v>
       </c>
@@ -4865,7 +4253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" ht="21" spans="1:3">
+    <row r="233" spans="1:3" ht="21">
       <c r="A233" s="6" t="s">
         <v>209</v>
       </c>
@@ -4876,7 +4264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" ht="21" spans="1:3">
+    <row r="234" spans="1:3" ht="21">
       <c r="A234" s="6" t="s">
         <v>209</v>
       </c>
@@ -4887,7 +4275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" ht="21" spans="1:3">
+    <row r="235" spans="1:3" ht="21">
       <c r="A235" s="6" t="s">
         <v>209</v>
       </c>
@@ -4898,15 +4286,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" ht="21" spans="2:3">
+    <row r="236" spans="1:3" ht="21">
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" ht="21" spans="2:3">
+    <row r="237" spans="1:3" ht="21">
       <c r="B237" s="8"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" ht="21" spans="1:3">
+    <row r="238" spans="1:3" ht="21">
       <c r="A238" s="6" t="s">
         <v>232</v>
       </c>
@@ -4917,7 +4305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" ht="21" spans="1:3">
+    <row r="239" spans="1:3" ht="21">
       <c r="A239" s="6" t="s">
         <v>232</v>
       </c>
@@ -4928,7 +4316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" ht="21" spans="1:3">
+    <row r="240" spans="1:3" ht="21">
       <c r="A240" s="6" t="s">
         <v>232</v>
       </c>
@@ -4939,7 +4327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" ht="21" spans="1:3">
+    <row r="241" spans="1:3" ht="21">
       <c r="A241" s="6" t="s">
         <v>232</v>
       </c>
@@ -4950,7 +4338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" ht="21" spans="1:3">
+    <row r="242" spans="1:3" ht="21">
       <c r="A242" s="6" t="s">
         <v>232</v>
       </c>
@@ -4961,7 +4349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" ht="21" spans="1:3">
+    <row r="243" spans="1:3" ht="21">
       <c r="A243" s="6" t="s">
         <v>232</v>
       </c>
@@ -4972,7 +4360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" ht="21" spans="1:3">
+    <row r="244" spans="1:3" ht="21">
       <c r="A244" s="6" t="s">
         <v>232</v>
       </c>
@@ -4983,7 +4371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" ht="21" spans="1:3">
+    <row r="245" spans="1:3" ht="21">
       <c r="A245" s="6" t="s">
         <v>232</v>
       </c>
@@ -4994,7 +4382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" ht="21" spans="1:3">
+    <row r="246" spans="1:3" ht="21">
       <c r="A246" s="6" t="s">
         <v>232</v>
       </c>
@@ -5005,7 +4393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" ht="21" spans="1:3">
+    <row r="247" spans="1:3" ht="21">
       <c r="A247" s="6" t="s">
         <v>232</v>
       </c>
@@ -5016,7 +4404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" ht="21" spans="1:3">
+    <row r="248" spans="1:3" ht="21">
       <c r="A248" s="6" t="s">
         <v>232</v>
       </c>
@@ -5027,7 +4415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" ht="21" spans="1:3">
+    <row r="249" spans="1:3" ht="21">
       <c r="A249" s="6" t="s">
         <v>232</v>
       </c>
@@ -5038,7 +4426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" ht="21" spans="1:3">
+    <row r="250" spans="1:3" ht="21">
       <c r="A250" s="6" t="s">
         <v>232</v>
       </c>
@@ -5049,7 +4437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" ht="21" spans="1:3">
+    <row r="251" spans="1:3" ht="21">
       <c r="A251" s="6" t="s">
         <v>232</v>
       </c>
@@ -5060,7 +4448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" ht="21" spans="1:3">
+    <row r="252" spans="1:3" ht="21">
       <c r="A252" s="6" t="s">
         <v>232</v>
       </c>
@@ -5071,7 +4459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" ht="21" spans="1:3">
+    <row r="253" spans="1:3" ht="21">
       <c r="A253" s="6" t="s">
         <v>232</v>
       </c>
@@ -5082,7 +4470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" ht="21" spans="1:3">
+    <row r="254" spans="1:3" ht="21">
       <c r="A254" s="6" t="s">
         <v>232</v>
       </c>
@@ -5093,7 +4481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" ht="21" spans="1:3">
+    <row r="255" spans="1:3" ht="21">
       <c r="A255" s="6" t="s">
         <v>232</v>
       </c>
@@ -5104,7 +4492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" ht="21" spans="1:3">
+    <row r="256" spans="1:3" ht="21">
       <c r="A256" s="6" t="s">
         <v>232</v>
       </c>
@@ -5115,7 +4503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" ht="21" spans="1:3">
+    <row r="257" spans="1:3" ht="21">
       <c r="A257" s="6" t="s">
         <v>232</v>
       </c>
@@ -5126,7 +4514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" ht="21" spans="1:3">
+    <row r="258" spans="1:3" ht="21">
       <c r="A258" s="6" t="s">
         <v>232</v>
       </c>
@@ -5137,7 +4525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" ht="21" spans="1:3">
+    <row r="259" spans="1:3" ht="21">
       <c r="A259" s="6" t="s">
         <v>232</v>
       </c>
@@ -5148,7 +4536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" ht="21" spans="1:3">
+    <row r="260" spans="1:3" ht="21">
       <c r="A260" s="6" t="s">
         <v>232</v>
       </c>
@@ -5159,7 +4547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" ht="21" spans="1:3">
+    <row r="261" spans="1:3" ht="21">
       <c r="A261" s="6" t="s">
         <v>232</v>
       </c>
@@ -5170,7 +4558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" ht="21" spans="1:3">
+    <row r="262" spans="1:3" ht="21">
       <c r="A262" s="6" t="s">
         <v>232</v>
       </c>
@@ -5181,7 +4569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" ht="21" spans="1:3">
+    <row r="263" spans="1:3" ht="21">
       <c r="A263" s="6" t="s">
         <v>232</v>
       </c>
@@ -5192,7 +4580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" ht="21" spans="1:3">
+    <row r="264" spans="1:3" ht="21">
       <c r="A264" s="6" t="s">
         <v>232</v>
       </c>
@@ -5203,7 +4591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" ht="21" spans="1:3">
+    <row r="265" spans="1:3" ht="21">
       <c r="A265" s="6" t="s">
         <v>232</v>
       </c>
@@ -5214,7 +4602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" ht="21" spans="1:3">
+    <row r="266" spans="1:3" ht="21">
       <c r="A266" s="6" t="s">
         <v>232</v>
       </c>
@@ -5225,7 +4613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" ht="21" spans="1:3">
+    <row r="267" spans="1:3" ht="21">
       <c r="A267" s="6" t="s">
         <v>232</v>
       </c>
@@ -5236,7 +4624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" ht="21" spans="1:3">
+    <row r="268" spans="1:3" ht="21">
       <c r="A268" s="6" t="s">
         <v>232</v>
       </c>
@@ -5247,7 +4635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" ht="21" spans="1:3">
+    <row r="269" spans="1:3" ht="21">
       <c r="A269" s="6" t="s">
         <v>232</v>
       </c>
@@ -5258,7 +4646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" ht="21" spans="1:3">
+    <row r="270" spans="1:3" ht="21">
       <c r="A270" s="6" t="s">
         <v>232</v>
       </c>
@@ -5269,7 +4657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" ht="21" spans="1:3">
+    <row r="271" spans="1:3" ht="21">
       <c r="A271" s="6" t="s">
         <v>232</v>
       </c>
@@ -5280,7 +4668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" ht="21" spans="1:3">
+    <row r="272" spans="1:3" ht="21">
       <c r="A272" s="6" t="s">
         <v>232</v>
       </c>
@@ -5291,15 +4679,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" ht="21" spans="2:3">
+    <row r="273" spans="1:3" ht="21">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" ht="21" spans="2:3">
+    <row r="274" spans="1:3" ht="21">
       <c r="B274" s="8"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" ht="21" spans="1:3">
+    <row r="275" spans="1:3" ht="21">
       <c r="A275" s="6" t="s">
         <v>267</v>
       </c>
@@ -5310,7 +4698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" ht="21" spans="1:3">
+    <row r="276" spans="1:3" ht="21">
       <c r="A276" s="6" t="s">
         <v>267</v>
       </c>
@@ -5321,7 +4709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" ht="21" spans="1:3">
+    <row r="277" spans="1:3" ht="21">
       <c r="A277" s="6" t="s">
         <v>267</v>
       </c>
@@ -5332,7 +4720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" ht="21" spans="1:3">
+    <row r="278" spans="1:3" ht="21">
       <c r="A278" s="6" t="s">
         <v>267</v>
       </c>
@@ -5343,7 +4731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" ht="21" spans="1:3">
+    <row r="279" spans="1:3" ht="21">
       <c r="A279" s="6" t="s">
         <v>267</v>
       </c>
@@ -5354,7 +4742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" ht="21" spans="1:3">
+    <row r="280" spans="1:3" ht="21">
       <c r="A280" s="6" t="s">
         <v>267</v>
       </c>
@@ -5365,7 +4753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" ht="21" spans="1:3">
+    <row r="281" spans="1:3" ht="21">
       <c r="A281" s="6" t="s">
         <v>267</v>
       </c>
@@ -5376,7 +4764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" ht="21" spans="1:3">
+    <row r="282" spans="1:3" ht="21">
       <c r="A282" s="6" t="s">
         <v>267</v>
       </c>
@@ -5387,7 +4775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" ht="21" spans="1:3">
+    <row r="283" spans="1:3" ht="21">
       <c r="A283" s="6" t="s">
         <v>267</v>
       </c>
@@ -5398,7 +4786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" ht="21" spans="1:3">
+    <row r="284" spans="1:3" ht="21">
       <c r="A284" s="6" t="s">
         <v>267</v>
       </c>
@@ -5409,7 +4797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" ht="21" spans="1:3">
+    <row r="285" spans="1:3" ht="21">
       <c r="A285" s="6" t="s">
         <v>267</v>
       </c>
@@ -5420,7 +4808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" ht="21" spans="1:3">
+    <row r="286" spans="1:3" ht="21">
       <c r="A286" s="6" t="s">
         <v>267</v>
       </c>
@@ -5431,7 +4819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" ht="21" spans="1:3">
+    <row r="287" spans="1:3" ht="21">
       <c r="A287" s="6" t="s">
         <v>267</v>
       </c>
@@ -5442,7 +4830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" ht="21" spans="1:3">
+    <row r="288" spans="1:3" ht="21">
       <c r="A288" s="6" t="s">
         <v>267</v>
       </c>
@@ -5453,7 +4841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" ht="21" spans="1:3">
+    <row r="289" spans="1:3" ht="21">
       <c r="A289" s="6" t="s">
         <v>267</v>
       </c>
@@ -5464,7 +4852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" ht="21" spans="1:3">
+    <row r="290" spans="1:3" ht="21">
       <c r="A290" s="6" t="s">
         <v>267</v>
       </c>
@@ -5475,7 +4863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" ht="21" spans="1:3">
+    <row r="291" spans="1:3" ht="21">
       <c r="A291" s="6" t="s">
         <v>267</v>
       </c>
@@ -5486,7 +4874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" ht="21" spans="1:3">
+    <row r="292" spans="1:3" ht="21">
       <c r="A292" s="6" t="s">
         <v>267</v>
       </c>
@@ -5497,7 +4885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" ht="21" spans="1:3">
+    <row r="293" spans="1:3" ht="21">
       <c r="A293" s="6" t="s">
         <v>267</v>
       </c>
@@ -5508,15 +4896,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" ht="21" spans="2:3">
+    <row r="294" spans="1:3" ht="21">
       <c r="B294" s="8"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" ht="21" spans="2:3">
+    <row r="295" spans="1:3" ht="21">
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" ht="21" spans="1:3">
+    <row r="296" spans="1:3" ht="21">
       <c r="A296" s="6" t="s">
         <v>287</v>
       </c>
@@ -5527,7 +4915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" ht="21" spans="1:3">
+    <row r="297" spans="1:3" ht="21">
       <c r="A297" s="6" t="s">
         <v>287</v>
       </c>
@@ -5538,7 +4926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" ht="21" spans="1:3">
+    <row r="298" spans="1:3" ht="21">
       <c r="A298" s="6" t="s">
         <v>287</v>
       </c>
@@ -5549,7 +4937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" ht="21" spans="1:3">
+    <row r="299" spans="1:3" ht="21">
       <c r="A299" s="6" t="s">
         <v>287</v>
       </c>
@@ -5560,7 +4948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" ht="21" spans="1:3">
+    <row r="300" spans="1:3" ht="21">
       <c r="A300" s="6" t="s">
         <v>287</v>
       </c>
@@ -5571,7 +4959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" ht="21" spans="1:3">
+    <row r="301" spans="1:3" ht="21">
       <c r="A301" s="6" t="s">
         <v>287</v>
       </c>
@@ -5582,7 +4970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" ht="21" spans="1:3">
+    <row r="302" spans="1:3" ht="21">
       <c r="A302" s="6" t="s">
         <v>287</v>
       </c>
@@ -5593,7 +4981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" ht="21" spans="1:3">
+    <row r="303" spans="1:3" ht="21">
       <c r="A303" s="6" t="s">
         <v>287</v>
       </c>
@@ -5604,7 +4992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" ht="21" spans="1:3">
+    <row r="304" spans="1:3" ht="21">
       <c r="A304" s="6" t="s">
         <v>287</v>
       </c>
@@ -5615,7 +5003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" ht="21" spans="1:3">
+    <row r="305" spans="1:3" ht="21">
       <c r="A305" s="6" t="s">
         <v>287</v>
       </c>
@@ -5626,7 +5014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" ht="21" spans="1:3">
+    <row r="306" spans="1:3" ht="21">
       <c r="A306" s="6" t="s">
         <v>287</v>
       </c>
@@ -5637,7 +5025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" ht="21" spans="1:3">
+    <row r="307" spans="1:3" ht="21">
       <c r="A307" s="6" t="s">
         <v>287</v>
       </c>
@@ -5648,7 +5036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" ht="21" spans="1:3">
+    <row r="308" spans="1:3" ht="21">
       <c r="A308" s="6" t="s">
         <v>287</v>
       </c>
@@ -5659,7 +5047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" ht="21" spans="1:3">
+    <row r="309" spans="1:3" ht="21">
       <c r="A309" s="6" t="s">
         <v>287</v>
       </c>
@@ -5670,7 +5058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" ht="21" spans="1:3">
+    <row r="310" spans="1:3" ht="21">
       <c r="A310" s="6" t="s">
         <v>287</v>
       </c>
@@ -5681,7 +5069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" ht="21" spans="1:3">
+    <row r="311" spans="1:3" ht="21">
       <c r="A311" s="6" t="s">
         <v>287</v>
       </c>
@@ -5692,7 +5080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" ht="21" spans="1:3">
+    <row r="312" spans="1:3" ht="21">
       <c r="A312" s="6" t="s">
         <v>287</v>
       </c>
@@ -5703,7 +5091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" ht="21" spans="1:3">
+    <row r="313" spans="1:3" ht="21">
       <c r="A313" s="6" t="s">
         <v>287</v>
       </c>
@@ -5714,7 +5102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" ht="21" spans="1:3">
+    <row r="314" spans="1:3" ht="21">
       <c r="A314" s="6" t="s">
         <v>287</v>
       </c>
@@ -5725,7 +5113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" ht="21" spans="1:3">
+    <row r="315" spans="1:3" ht="21">
       <c r="A315" s="6" t="s">
         <v>287</v>
       </c>
@@ -5736,7 +5124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" ht="21" spans="1:3">
+    <row r="316" spans="1:3" ht="21">
       <c r="A316" s="6" t="s">
         <v>287</v>
       </c>
@@ -5747,7 +5135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" ht="21" spans="1:3">
+    <row r="317" spans="1:3" ht="21">
       <c r="A317" s="6" t="s">
         <v>287</v>
       </c>
@@ -5758,7 +5146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" ht="21" spans="1:3">
+    <row r="318" spans="1:3" ht="21">
       <c r="A318" s="6" t="s">
         <v>287</v>
       </c>
@@ -5769,7 +5157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" ht="21" spans="1:3">
+    <row r="319" spans="1:3" ht="21">
       <c r="A319" s="6" t="s">
         <v>287</v>
       </c>
@@ -5780,7 +5168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" ht="21" spans="1:3">
+    <row r="320" spans="1:3" ht="21">
       <c r="A320" s="6" t="s">
         <v>287</v>
       </c>
@@ -5791,7 +5179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" ht="21" spans="1:3">
+    <row r="321" spans="1:3" ht="21">
       <c r="A321" s="6" t="s">
         <v>287</v>
       </c>
@@ -5802,7 +5190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" ht="21" spans="1:3">
+    <row r="322" spans="1:3" ht="21">
       <c r="A322" s="6" t="s">
         <v>287</v>
       </c>
@@ -5813,7 +5201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" ht="21" spans="1:3">
+    <row r="323" spans="1:3" ht="21">
       <c r="A323" s="6" t="s">
         <v>287</v>
       </c>
@@ -5824,7 +5212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" ht="21" spans="1:3">
+    <row r="324" spans="1:3" ht="21">
       <c r="A324" s="6" t="s">
         <v>287</v>
       </c>
@@ -5835,7 +5223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" ht="21" spans="1:3">
+    <row r="325" spans="1:3" ht="21">
       <c r="A325" s="6" t="s">
         <v>287</v>
       </c>
@@ -5846,7 +5234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" ht="21" spans="1:3">
+    <row r="326" spans="1:3" ht="21">
       <c r="A326" s="6" t="s">
         <v>287</v>
       </c>
@@ -5857,7 +5245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" ht="21" spans="1:3">
+    <row r="327" spans="1:3" ht="21">
       <c r="A327" s="6" t="s">
         <v>287</v>
       </c>
@@ -5868,7 +5256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" ht="21" spans="1:3">
+    <row r="328" spans="1:3" ht="21">
       <c r="A328" s="6" t="s">
         <v>287</v>
       </c>
@@ -5879,7 +5267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" ht="21" spans="1:3">
+    <row r="329" spans="1:3" ht="21">
       <c r="A329" s="6" t="s">
         <v>287</v>
       </c>
@@ -5890,7 +5278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" ht="21" spans="1:3">
+    <row r="330" spans="1:3" ht="21">
       <c r="A330" s="6" t="s">
         <v>287</v>
       </c>
@@ -5901,7 +5289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" ht="21" spans="1:3">
+    <row r="331" spans="1:3" ht="21">
       <c r="A331" s="6" t="s">
         <v>287</v>
       </c>
@@ -5912,7 +5300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" ht="21" spans="1:3">
+    <row r="332" spans="1:3" ht="21">
       <c r="A332" s="6" t="s">
         <v>287</v>
       </c>
@@ -5923,7 +5311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" ht="21" spans="1:3">
+    <row r="333" spans="1:3" ht="21">
       <c r="A333" s="6" t="s">
         <v>287</v>
       </c>
@@ -5934,15 +5322,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" ht="21" spans="2:3">
+    <row r="334" spans="1:3" ht="21">
       <c r="B334" s="8"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" ht="21" spans="2:3">
+    <row r="335" spans="1:3" ht="21">
       <c r="B335" s="8"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" ht="21" spans="1:3">
+    <row r="336" spans="1:3" ht="21">
       <c r="A336" s="9" t="s">
         <v>326</v>
       </c>
@@ -5953,7 +5341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" ht="21" spans="1:3">
+    <row r="337" spans="1:3" ht="21">
       <c r="A337" s="9" t="s">
         <v>326</v>
       </c>
@@ -5964,7 +5352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" ht="21" spans="1:3">
+    <row r="338" spans="1:3" ht="21">
       <c r="A338" s="9" t="s">
         <v>326</v>
       </c>
@@ -5975,7 +5363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" ht="21" spans="1:3">
+    <row r="339" spans="1:3" ht="21">
       <c r="A339" s="9" t="s">
         <v>326</v>
       </c>
@@ -5986,7 +5374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" ht="21" spans="1:3">
+    <row r="340" spans="1:3" ht="21">
       <c r="A340" s="9" t="s">
         <v>326</v>
       </c>
@@ -5997,7 +5385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" ht="21" spans="1:3">
+    <row r="341" spans="1:3" ht="21">
       <c r="A341" s="9" t="s">
         <v>326</v>
       </c>
@@ -6008,7 +5396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" ht="21" spans="1:3">
+    <row r="342" spans="1:3" ht="21">
       <c r="A342" s="9" t="s">
         <v>326</v>
       </c>
@@ -6019,7 +5407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" ht="21" spans="1:3">
+    <row r="343" spans="1:3" ht="21">
       <c r="A343" s="9" t="s">
         <v>326</v>
       </c>
@@ -6030,7 +5418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" ht="21" spans="1:3">
+    <row r="344" spans="1:3" ht="21">
       <c r="A344" s="9" t="s">
         <v>326</v>
       </c>
@@ -6041,7 +5429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" ht="21" spans="1:3">
+    <row r="345" spans="1:3" ht="21">
       <c r="A345" s="9" t="s">
         <v>326</v>
       </c>
@@ -6052,7 +5440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" ht="21" spans="1:3">
+    <row r="346" spans="1:3" ht="21">
       <c r="A346" s="9" t="s">
         <v>326</v>
       </c>
@@ -6063,7 +5451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" ht="21" spans="1:3">
+    <row r="347" spans="1:3" ht="21">
       <c r="A347" s="9" t="s">
         <v>326</v>
       </c>
@@ -6074,7 +5462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" ht="21" spans="1:3">
+    <row r="348" spans="1:3" ht="21">
       <c r="A348" s="9" t="s">
         <v>326</v>
       </c>
@@ -6085,7 +5473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" ht="21" spans="1:3">
+    <row r="349" spans="1:3" ht="21">
       <c r="A349" s="9" t="s">
         <v>326</v>
       </c>
@@ -6096,7 +5484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" ht="21" spans="1:3">
+    <row r="350" spans="1:3" ht="21">
       <c r="A350" s="9" t="s">
         <v>326</v>
       </c>
@@ -6107,7 +5495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" ht="21" spans="1:3">
+    <row r="351" spans="1:3" ht="21">
       <c r="A351" s="9" t="s">
         <v>326</v>
       </c>
@@ -6118,7 +5506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" ht="21" spans="1:3">
+    <row r="352" spans="1:3" ht="21">
       <c r="A352" s="9" t="s">
         <v>326</v>
       </c>
@@ -6129,7 +5517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" ht="21" spans="1:3">
+    <row r="353" spans="1:3" ht="21">
       <c r="A353" s="9" t="s">
         <v>326</v>
       </c>
@@ -6140,15 +5528,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" ht="21" spans="2:3">
+    <row r="354" spans="1:3" ht="21">
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" ht="21" spans="2:3">
+    <row r="355" spans="1:3" ht="21">
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" ht="21" spans="1:3">
+    <row r="356" spans="1:3" ht="21">
       <c r="A356" s="9" t="s">
         <v>345</v>
       </c>
@@ -6159,7 +5547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" ht="21" spans="1:3">
+    <row r="357" spans="1:3" ht="21">
       <c r="A357" s="9" t="s">
         <v>345</v>
       </c>
@@ -6170,7 +5558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" ht="21" spans="1:3">
+    <row r="358" spans="1:3" ht="21">
       <c r="A358" s="9" t="s">
         <v>345</v>
       </c>
@@ -6181,7 +5569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" ht="21" spans="1:3">
+    <row r="359" spans="1:3" ht="21">
       <c r="A359" s="9" t="s">
         <v>345</v>
       </c>
@@ -6192,7 +5580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" ht="21" spans="1:3">
+    <row r="360" spans="1:3" ht="21">
       <c r="A360" s="9" t="s">
         <v>345</v>
       </c>
@@ -6203,7 +5591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" ht="21" spans="1:3">
+    <row r="361" spans="1:3" ht="21">
       <c r="A361" s="9" t="s">
         <v>345</v>
       </c>
@@ -6214,7 +5602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" ht="21" spans="1:3">
+    <row r="362" spans="1:3" ht="21">
       <c r="A362" s="9" t="s">
         <v>345</v>
       </c>
@@ -6225,7 +5613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" ht="21" spans="1:3">
+    <row r="363" spans="1:3" ht="21">
       <c r="A363" s="9" t="s">
         <v>345</v>
       </c>
@@ -6236,7 +5624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" ht="21" spans="1:3">
+    <row r="364" spans="1:3" ht="21">
       <c r="A364" s="9" t="s">
         <v>345</v>
       </c>
@@ -6247,7 +5635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" ht="21" spans="1:3">
+    <row r="365" spans="1:3" ht="21">
       <c r="A365" s="9" t="s">
         <v>345</v>
       </c>
@@ -6258,7 +5646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" ht="21" spans="1:3">
+    <row r="366" spans="1:3" ht="21">
       <c r="A366" s="9" t="s">
         <v>345</v>
       </c>
@@ -6269,7 +5657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" ht="21" spans="1:3">
+    <row r="367" spans="1:3" ht="21">
       <c r="A367" s="9" t="s">
         <v>345</v>
       </c>
@@ -6280,7 +5668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" ht="21" spans="1:3">
+    <row r="368" spans="1:3" ht="21">
       <c r="A368" s="9" t="s">
         <v>345</v>
       </c>
@@ -6291,7 +5679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" ht="21" spans="1:3">
+    <row r="369" spans="1:3" ht="21">
       <c r="A369" s="9" t="s">
         <v>345</v>
       </c>
@@ -6302,7 +5690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" ht="21" spans="1:3">
+    <row r="370" spans="1:3" ht="21">
       <c r="A370" s="9" t="s">
         <v>345</v>
       </c>
@@ -6313,7 +5701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" ht="21" spans="1:3">
+    <row r="371" spans="1:3" ht="21">
       <c r="A371" s="9" t="s">
         <v>345</v>
       </c>
@@ -6324,7 +5712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" ht="21" spans="1:3">
+    <row r="372" spans="1:3" ht="21">
       <c r="A372" s="9" t="s">
         <v>345</v>
       </c>
@@ -6335,7 +5723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" ht="21" spans="1:3">
+    <row r="373" spans="1:3" ht="21">
       <c r="A373" s="9" t="s">
         <v>345</v>
       </c>
@@ -6346,7 +5734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" ht="21" spans="1:3">
+    <row r="374" spans="1:3" ht="21">
       <c r="A374" s="9" t="s">
         <v>345</v>
       </c>
@@ -6357,7 +5745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" ht="21" spans="1:3">
+    <row r="375" spans="1:3" ht="21">
       <c r="A375" s="9" t="s">
         <v>345</v>
       </c>
@@ -6368,7 +5756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" ht="21" spans="1:3">
+    <row r="376" spans="1:3" ht="21">
       <c r="A376" s="9" t="s">
         <v>345</v>
       </c>
@@ -6379,7 +5767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" ht="21" spans="1:3">
+    <row r="377" spans="1:3" ht="21">
       <c r="A377" s="9" t="s">
         <v>345</v>
       </c>
@@ -6390,7 +5778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" ht="21" spans="1:3">
+    <row r="378" spans="1:3" ht="21">
       <c r="A378" s="9" t="s">
         <v>345</v>
       </c>
@@ -6401,7 +5789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" ht="21" spans="1:3">
+    <row r="379" spans="1:3" ht="21">
       <c r="A379" s="9" t="s">
         <v>345</v>
       </c>
@@ -6412,7 +5800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" ht="21" spans="1:3">
+    <row r="380" spans="1:3" ht="21">
       <c r="A380" s="9" t="s">
         <v>345</v>
       </c>
@@ -6423,7 +5811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" ht="21" spans="1:3">
+    <row r="381" spans="1:3" ht="21">
       <c r="A381" s="9" t="s">
         <v>345</v>
       </c>
@@ -6434,7 +5822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" ht="21" spans="1:3">
+    <row r="382" spans="1:3" ht="21">
       <c r="A382" s="9" t="s">
         <v>345</v>
       </c>
@@ -6445,7 +5833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" ht="21" spans="1:3">
+    <row r="383" spans="1:3" ht="21">
       <c r="A383" s="9" t="s">
         <v>345</v>
       </c>
@@ -6456,7 +5844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" ht="21" spans="1:3">
+    <row r="384" spans="1:3" ht="21">
       <c r="A384" s="9" t="s">
         <v>345</v>
       </c>
@@ -6467,7 +5855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" ht="21" spans="1:3">
+    <row r="385" spans="1:3" ht="21">
       <c r="A385" s="9" t="s">
         <v>345</v>
       </c>
@@ -6478,7 +5866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" ht="21" spans="1:3">
+    <row r="386" spans="1:3" ht="21">
       <c r="A386" s="9" t="s">
         <v>345</v>
       </c>
@@ -6489,7 +5877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" ht="21" spans="1:3">
+    <row r="387" spans="1:3" ht="21">
       <c r="A387" s="9" t="s">
         <v>345</v>
       </c>
@@ -6500,7 +5888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" ht="21" spans="1:3">
+    <row r="388" spans="1:3" ht="21">
       <c r="A388" s="9" t="s">
         <v>345</v>
       </c>
@@ -6511,7 +5899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" ht="21" spans="1:3">
+    <row r="389" spans="1:3" ht="21">
       <c r="A389" s="9" t="s">
         <v>345</v>
       </c>
@@ -6522,7 +5910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" ht="21" spans="1:3">
+    <row r="390" spans="1:3" ht="21">
       <c r="A390" s="9" t="s">
         <v>345</v>
       </c>
@@ -6533,7 +5921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" ht="21" spans="1:3">
+    <row r="391" spans="1:3" ht="21">
       <c r="A391" s="9" t="s">
         <v>345</v>
       </c>
@@ -6544,7 +5932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" ht="21" spans="1:3">
+    <row r="392" spans="1:3" ht="21">
       <c r="A392" s="9" t="s">
         <v>345</v>
       </c>
@@ -6555,7 +5943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" ht="21" spans="1:3">
+    <row r="393" spans="1:3" ht="21">
       <c r="A393" s="9" t="s">
         <v>345</v>
       </c>
@@ -6566,7 +5954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" ht="21" spans="1:3">
+    <row r="394" spans="1:3" ht="21">
       <c r="A394" s="9" t="s">
         <v>345</v>
       </c>
@@ -6577,7 +5965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" ht="21" spans="1:3">
+    <row r="395" spans="1:3" ht="21">
       <c r="A395" s="9" t="s">
         <v>345</v>
       </c>
@@ -6588,7 +5976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" ht="21" spans="1:3">
+    <row r="396" spans="1:3" ht="21">
       <c r="A396" s="9" t="s">
         <v>345</v>
       </c>
@@ -6599,7 +5987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" ht="21" spans="1:3">
+    <row r="397" spans="1:3" ht="21">
       <c r="A397" s="9" t="s">
         <v>345</v>
       </c>
@@ -6610,7 +5998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" ht="21" spans="1:3">
+    <row r="398" spans="1:3" ht="21">
       <c r="A398" s="9" t="s">
         <v>345</v>
       </c>
@@ -6621,7 +6009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" ht="21" spans="1:3">
+    <row r="399" spans="1:3" ht="21">
       <c r="A399" s="9" t="s">
         <v>345</v>
       </c>
@@ -6632,15 +6020,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" ht="21" spans="2:3">
+    <row r="400" spans="1:3" ht="21">
       <c r="B400" s="8"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" ht="21" spans="2:3">
+    <row r="401" spans="1:3" ht="21">
       <c r="B401" s="8"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" ht="21" spans="1:3">
+    <row r="402" spans="1:3" ht="21">
       <c r="A402" s="9" t="s">
         <v>389</v>
       </c>
@@ -6651,7 +6039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" ht="21" spans="1:3">
+    <row r="403" spans="1:3" ht="21">
       <c r="A403" s="9" t="s">
         <v>389</v>
       </c>
@@ -6662,7 +6050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" ht="21" spans="1:3">
+    <row r="404" spans="1:3" ht="21">
       <c r="A404" s="9" t="s">
         <v>389</v>
       </c>
@@ -6673,7 +6061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" ht="21" spans="1:3">
+    <row r="405" spans="1:3" ht="21">
       <c r="A405" s="9" t="s">
         <v>389</v>
       </c>
@@ -6684,7 +6072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" ht="21" spans="1:3">
+    <row r="406" spans="1:3" ht="21">
       <c r="A406" s="9" t="s">
         <v>389</v>
       </c>
@@ -6695,7 +6083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" ht="21" spans="1:3">
+    <row r="407" spans="1:3" ht="21">
       <c r="A407" s="9" t="s">
         <v>389</v>
       </c>
@@ -6706,15 +6094,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" ht="21" spans="2:3">
+    <row r="408" spans="1:3" ht="21">
       <c r="B408" s="8"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" ht="21" spans="2:3">
+    <row r="409" spans="1:3" ht="21">
       <c r="B409" s="8"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" ht="21" spans="1:3">
+    <row r="410" spans="1:3" ht="21">
       <c r="A410" s="6" t="s">
         <v>395</v>
       </c>
@@ -6725,7 +6113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" ht="21" spans="1:3">
+    <row r="411" spans="1:3" ht="21">
       <c r="A411" s="6" t="s">
         <v>395</v>
       </c>
@@ -6736,7 +6124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" ht="21" spans="1:3">
+    <row r="412" spans="1:3" ht="21">
       <c r="A412" s="6" t="s">
         <v>395</v>
       </c>
@@ -6747,7 +6135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" ht="21" spans="1:3">
+    <row r="413" spans="1:3" ht="21">
       <c r="A413" s="6" t="s">
         <v>395</v>
       </c>
@@ -6758,7 +6146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" ht="21" spans="1:3">
+    <row r="414" spans="1:3" ht="21">
       <c r="A414" s="6" t="s">
         <v>395</v>
       </c>
@@ -6769,7 +6157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" ht="21" spans="1:3">
+    <row r="415" spans="1:3" ht="21">
       <c r="A415" s="6" t="s">
         <v>395</v>
       </c>
@@ -6780,7 +6168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" ht="21" spans="1:3">
+    <row r="416" spans="1:3" ht="21">
       <c r="A416" s="6" t="s">
         <v>395</v>
       </c>
@@ -6791,7 +6179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" ht="21" spans="1:3">
+    <row r="417" spans="1:3" ht="21">
       <c r="A417" s="6" t="s">
         <v>395</v>
       </c>
@@ -6802,7 +6190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" ht="21" spans="1:3">
+    <row r="418" spans="1:3" ht="21">
       <c r="A418" s="6" t="s">
         <v>395</v>
       </c>
@@ -6813,7 +6201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" ht="21" spans="1:3">
+    <row r="419" spans="1:3" ht="21">
       <c r="A419" s="6" t="s">
         <v>395</v>
       </c>
@@ -6824,7 +6212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" ht="21" spans="1:3">
+    <row r="420" spans="1:3" ht="21">
       <c r="A420" s="6" t="s">
         <v>395</v>
       </c>
@@ -6835,7 +6223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" ht="21" spans="1:3">
+    <row r="421" spans="1:3" ht="21">
       <c r="A421" s="6" t="s">
         <v>395</v>
       </c>
@@ -6846,7 +6234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" ht="21" spans="1:3">
+    <row r="422" spans="1:3" ht="21">
       <c r="A422" s="6" t="s">
         <v>395</v>
       </c>
@@ -6857,7 +6245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" ht="21" spans="1:3">
+    <row r="423" spans="1:3" ht="21">
       <c r="A423" s="6" t="s">
         <v>395</v>
       </c>
@@ -6868,7 +6256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" ht="21" spans="1:3">
+    <row r="424" spans="1:3" ht="21">
       <c r="A424" s="6" t="s">
         <v>395</v>
       </c>
@@ -6879,7 +6267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" ht="21" spans="1:3">
+    <row r="425" spans="1:3" ht="21">
       <c r="A425" s="6" t="s">
         <v>395</v>
       </c>
@@ -6890,7 +6278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" ht="21" spans="1:3">
+    <row r="426" spans="1:3" ht="21">
       <c r="A426" s="6" t="s">
         <v>395</v>
       </c>
@@ -6901,7 +6289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" ht="21" spans="1:3">
+    <row r="427" spans="1:3" ht="21">
       <c r="A427" s="6" t="s">
         <v>395</v>
       </c>
@@ -6912,7 +6300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" ht="21" spans="1:3">
+    <row r="428" spans="1:3" ht="21">
       <c r="A428" s="6" t="s">
         <v>395</v>
       </c>
@@ -6923,7 +6311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" ht="21" spans="1:3">
+    <row r="429" spans="1:3" ht="21">
       <c r="A429" s="6" t="s">
         <v>395</v>
       </c>
@@ -6934,7 +6322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" ht="21" spans="1:3">
+    <row r="430" spans="1:3" ht="21">
       <c r="A430" s="6" t="s">
         <v>395</v>
       </c>
@@ -6945,7 +6333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" ht="21" spans="1:3">
+    <row r="431" spans="1:3" ht="21">
       <c r="A431" s="6" t="s">
         <v>395</v>
       </c>
@@ -6956,7 +6344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" ht="21" spans="1:3">
+    <row r="432" spans="1:3" ht="21">
       <c r="A432" s="6" t="s">
         <v>395</v>
       </c>
@@ -6967,7 +6355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" ht="21" spans="1:3">
+    <row r="433" spans="1:3" ht="21">
       <c r="A433" s="6" t="s">
         <v>395</v>
       </c>
@@ -6978,7 +6366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" ht="21" spans="1:3">
+    <row r="434" spans="1:3" ht="21">
       <c r="A434" s="6" t="s">
         <v>395</v>
       </c>
@@ -6989,7 +6377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" ht="21" spans="1:3">
+    <row r="435" spans="1:3" ht="21">
       <c r="A435" s="6" t="s">
         <v>395</v>
       </c>
@@ -7000,7 +6388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" ht="21" spans="1:3">
+    <row r="436" spans="1:3" ht="21">
       <c r="A436" s="6" t="s">
         <v>395</v>
       </c>
@@ -7011,7 +6399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" ht="21" spans="1:3">
+    <row r="437" spans="1:3" ht="21">
       <c r="A437" s="6" t="s">
         <v>395</v>
       </c>
@@ -7022,7 +6410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" ht="21" spans="1:3">
+    <row r="438" spans="1:3" ht="21">
       <c r="A438" s="6" t="s">
         <v>395</v>
       </c>
@@ -7033,7 +6421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" ht="21" spans="1:3">
+    <row r="439" spans="1:3" ht="21">
       <c r="A439" s="6" t="s">
         <v>395</v>
       </c>
@@ -7044,7 +6432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" ht="21" spans="1:3">
+    <row r="440" spans="1:3" ht="21">
       <c r="A440" s="6" t="s">
         <v>395</v>
       </c>
@@ -7055,7 +6443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" ht="21" spans="1:3">
+    <row r="441" spans="1:3" ht="21">
       <c r="A441" s="6" t="s">
         <v>395</v>
       </c>
@@ -7066,7 +6454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" ht="21" spans="1:3">
+    <row r="442" spans="1:3" ht="21">
       <c r="A442" s="6" t="s">
         <v>395</v>
       </c>
@@ -7077,7 +6465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" ht="21" spans="1:3">
+    <row r="443" spans="1:3" ht="21">
       <c r="A443" s="6" t="s">
         <v>395</v>
       </c>
@@ -7088,7 +6476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" ht="21" spans="1:3">
+    <row r="444" spans="1:3" ht="21">
       <c r="A444" s="6" t="s">
         <v>395</v>
       </c>
@@ -7099,7 +6487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" ht="21" spans="1:3">
+    <row r="445" spans="1:3" ht="21">
       <c r="A445" s="6" t="s">
         <v>395</v>
       </c>
@@ -7110,7 +6498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" ht="21" spans="1:3">
+    <row r="446" spans="1:3" ht="21">
       <c r="A446" s="6" t="s">
         <v>395</v>
       </c>
@@ -7121,7 +6509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" ht="21" spans="1:3">
+    <row r="447" spans="1:3" ht="21">
       <c r="A447" s="6" t="s">
         <v>395</v>
       </c>
@@ -7132,7 +6520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" ht="21" spans="1:3">
+    <row r="448" spans="1:3" ht="21">
       <c r="A448" s="6" t="s">
         <v>395</v>
       </c>
@@ -7143,7 +6531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" ht="21" spans="1:3">
+    <row r="449" spans="1:3" ht="21">
       <c r="A449" s="6" t="s">
         <v>395</v>
       </c>
@@ -7154,7 +6542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" ht="21" spans="1:3">
+    <row r="450" spans="1:3" ht="21">
       <c r="A450" s="6" t="s">
         <v>395</v>
       </c>
@@ -7165,7 +6553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" ht="21" spans="1:3">
+    <row r="451" spans="1:3" ht="21">
       <c r="A451" s="6" t="s">
         <v>395</v>
       </c>
@@ -7176,7 +6564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" ht="21" spans="1:3">
+    <row r="452" spans="1:3" ht="21">
       <c r="A452" s="6" t="s">
         <v>395</v>
       </c>
@@ -7187,7 +6575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" ht="21" spans="1:3">
+    <row r="453" spans="1:3" ht="21">
       <c r="A453" s="6" t="s">
         <v>395</v>
       </c>
@@ -7198,7 +6586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" ht="21" spans="1:3">
+    <row r="454" spans="1:3" ht="21">
       <c r="A454" s="6" t="s">
         <v>395</v>
       </c>
@@ -7209,7 +6597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" ht="21" spans="1:3">
+    <row r="455" spans="1:3" ht="21">
       <c r="A455" s="6" t="s">
         <v>395</v>
       </c>
@@ -7220,7 +6608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" ht="21" spans="1:3">
+    <row r="456" spans="1:3" ht="21">
       <c r="A456" s="6" t="s">
         <v>395</v>
       </c>
@@ -7231,7 +6619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" ht="21" spans="1:3">
+    <row r="457" spans="1:3" ht="21">
       <c r="A457" s="6" t="s">
         <v>395</v>
       </c>
@@ -7242,7 +6630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" ht="21" spans="1:3">
+    <row r="458" spans="1:3" ht="21">
       <c r="A458" s="6" t="s">
         <v>395</v>
       </c>
@@ -7253,7 +6641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" ht="21" spans="1:3">
+    <row r="459" spans="1:3" ht="21">
       <c r="A459" s="6" t="s">
         <v>395</v>
       </c>
@@ -7264,7 +6652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" ht="21" spans="1:3">
+    <row r="460" spans="1:3" ht="21">
       <c r="A460" s="6" t="s">
         <v>395</v>
       </c>
@@ -7275,7 +6663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" ht="21" spans="1:3">
+    <row r="461" spans="1:3" ht="21">
       <c r="A461" s="6" t="s">
         <v>395</v>
       </c>
@@ -7286,7 +6674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" ht="21" spans="1:3">
+    <row r="462" spans="1:3" ht="21">
       <c r="A462" s="6" t="s">
         <v>395</v>
       </c>
@@ -7297,7 +6685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" ht="21" spans="1:3">
+    <row r="463" spans="1:3" ht="21">
       <c r="A463" s="6" t="s">
         <v>395</v>
       </c>
@@ -7308,7 +6696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" ht="21" spans="1:3">
+    <row r="464" spans="1:3" ht="21">
       <c r="A464" s="6" t="s">
         <v>395</v>
       </c>
@@ -7319,7 +6707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" ht="21" spans="1:3">
+    <row r="465" spans="1:3" ht="21">
       <c r="A465" s="6" t="s">
         <v>395</v>
       </c>
@@ -7330,7 +6718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" ht="21" spans="1:3">
+    <row r="466" spans="1:3" ht="21">
       <c r="A466" s="6" t="s">
         <v>395</v>
       </c>
@@ -7341,7 +6729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" ht="21" spans="1:3">
+    <row r="467" spans="1:3" ht="21">
       <c r="A467" s="6" t="s">
         <v>395</v>
       </c>
@@ -7352,7 +6740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" ht="21" spans="1:3">
+    <row r="468" spans="1:3" ht="21">
       <c r="A468" s="6" t="s">
         <v>395</v>
       </c>
@@ -7363,7 +6751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" ht="21" spans="1:3">
+    <row r="469" spans="1:3" ht="21">
       <c r="A469" s="6" t="s">
         <v>395</v>
       </c>
@@ -7374,16 +6762,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" ht="21" spans="2:3">
+    <row r="470" spans="1:3" ht="21">
       <c r="B470" s="8"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" ht="21" spans="1:3">
+    <row r="471" spans="1:3" ht="21">
       <c r="A471" s="9"/>
       <c r="B471" s="8"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" ht="21" spans="1:3">
+    <row r="472" spans="1:3" ht="21">
       <c r="A472" s="6" t="s">
         <v>455</v>
       </c>
@@ -7394,7 +6782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" ht="21" spans="1:3">
+    <row r="473" spans="1:3" ht="21">
       <c r="A473" s="6" t="s">
         <v>455</v>
       </c>
@@ -7405,7 +6793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" ht="21" spans="1:3">
+    <row r="474" spans="1:3" ht="21">
       <c r="A474" s="6" t="s">
         <v>455</v>
       </c>
@@ -7416,7 +6804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" ht="21" spans="1:3">
+    <row r="475" spans="1:3" ht="21">
       <c r="A475" s="6" t="s">
         <v>455</v>
       </c>
@@ -7427,7 +6815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" ht="21" spans="1:3">
+    <row r="476" spans="1:3" ht="21">
       <c r="A476" s="6" t="s">
         <v>455</v>
       </c>
@@ -7438,7 +6826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" ht="21" spans="1:3">
+    <row r="477" spans="1:3" ht="21">
       <c r="A477" s="6" t="s">
         <v>455</v>
       </c>
@@ -7449,7 +6837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" ht="21" spans="1:3">
+    <row r="478" spans="1:3" ht="21">
       <c r="A478" s="6" t="s">
         <v>455</v>
       </c>
@@ -7460,7 +6848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" ht="21" spans="1:3">
+    <row r="479" spans="1:3" ht="21">
       <c r="A479" s="6" t="s">
         <v>455</v>
       </c>
@@ -7471,7 +6859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" ht="21" spans="1:3">
+    <row r="480" spans="1:3" ht="21">
       <c r="A480" s="6" t="s">
         <v>455</v>
       </c>
@@ -7482,7 +6870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" ht="21" spans="1:3">
+    <row r="481" spans="1:3" ht="21">
       <c r="A481" s="6" t="s">
         <v>455</v>
       </c>
@@ -7495,454 +6883,453 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="Reverse the array"/>
-    <hyperlink ref="B7" r:id="rId2" display="Find the maximum and minimum element in an array"/>
-    <hyperlink ref="B8" r:id="rId3" display="Find the &quot;Kth&quot; max and min element of an array "/>
-    <hyperlink ref="B9" r:id="rId4" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
-    <hyperlink ref="B10" r:id="rId5" display="Move all the negative elements to one side of the array "/>
-    <hyperlink ref="B11" r:id="rId6" display="Find the Union and Intersection of the two sorted arrays."/>
-    <hyperlink ref="B12" r:id="rId7" display="Write a program to cyclically rotate an array by one."/>
-    <hyperlink ref="B13" r:id="rId8" display="find Largest sum contiguous Subarray [V. IMP]"/>
-    <hyperlink ref="B14" r:id="rId9" display="Minimise the maximum difference between heights [V.IMP]"/>
-    <hyperlink ref="B15" r:id="rId10" display="Minimum no. of Jumps to reach end of an array"/>
-    <hyperlink ref="B16" r:id="rId11" display="find duplicate in an array of N+1 Integers"/>
-    <hyperlink ref="B17" r:id="rId12" display="Merge 2 sorted arrays without using Extra space."/>
-    <hyperlink ref="B18" r:id="rId8" display="Kadane's Algo [V.V.V.V.V IMP]"/>
-    <hyperlink ref="B19" r:id="rId13" display="Merge Intervals"/>
-    <hyperlink ref="B20" r:id="rId14" display="Next Permutation"/>
-    <hyperlink ref="B21" r:id="rId15" display="Count Inversion"/>
-    <hyperlink ref="B22" r:id="rId16" display="Best time to buy and Sell stock"/>
-    <hyperlink ref="B23" r:id="rId17" display="find all pairs on integer array whose sum is equal to given number"/>
-    <hyperlink ref="B24" r:id="rId18" display="find common elements In 3 sorted arrays"/>
-    <hyperlink ref="B25" r:id="rId19" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
-    <hyperlink ref="B26" r:id="rId20" display="Find if there is any subarray with sum equal to 0"/>
-    <hyperlink ref="B27" r:id="rId21" display="Find factorial of a large number"/>
-    <hyperlink ref="B28" r:id="rId22" display="find maximum product subarray "/>
-    <hyperlink ref="B29" r:id="rId23" display="Find longest coinsecutive subsequence"/>
-    <hyperlink ref="B30" r:id="rId24" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
-    <hyperlink ref="B31" r:id="rId25" display="Maximum profit by buying and selling a share atmost twice"/>
-    <hyperlink ref="B32" r:id="rId26" display="Find whether an array is a subset of another array"/>
-    <hyperlink ref="B33" r:id="rId27" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="B34" r:id="rId28" display="Trapping Rain water problem"/>
-    <hyperlink ref="B35" r:id="rId29" display="Chocolate Distribution problem"/>
-    <hyperlink ref="B36" r:id="rId30" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="B37" r:id="rId31" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="B38" r:id="rId32" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B39" r:id="rId33" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="B40" r:id="rId34" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B41" r:id="rId35" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B44" r:id="rId36" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B45" r:id="rId37" display="Search an element in a matriix"/>
-    <hyperlink ref="B46" r:id="rId38" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B47" r:id="rId39" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B48" r:id="rId40" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B49" r:id="rId41" display="Maximum size rectangle"/>
-    <hyperlink ref="B50" r:id="rId42" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B51" r:id="rId43" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B52" r:id="rId44" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="B53" r:id="rId45" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B56" r:id="rId46" display="Reverse a String"/>
-    <hyperlink ref="B57" r:id="rId47" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B58" r:id="rId48" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId49" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId50" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId51" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId52" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId53" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId54" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId55" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId56" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId57" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId58" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId59" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId60" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId61" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId62" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId63" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId64" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId65" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId66" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId67" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId68" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId69" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId70" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId71" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId72" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId73" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId74" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId75" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId76" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId77" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId79" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId81" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId82" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId83" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId84" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId85" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId86" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId87" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId88" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId89" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId90" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId91" display="square root of an integer"/>
-    <hyperlink ref="B106" r:id="rId92" display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId93" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId94" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId95" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId96" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId97" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B113" r:id="rId98" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId12" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId99" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId100" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId101" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId102" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId103" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId104" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId105" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId106" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId107" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId108" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId109" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId110" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId111" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId112" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId113" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId109" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId114" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId115" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId116" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId15" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId117" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId118" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B105" r:id="rId119" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B112" r:id="rId120" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B139" r:id="rId121" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId122" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId123" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId124" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId125" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId126" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId127" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId128" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId129" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId130" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId131" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId132" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId133" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId134" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId135" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId136" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId137" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId138" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId139" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId140" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId141" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId142" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId143" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId144" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId145" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId146" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId147" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId148" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId149" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId150" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId151" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId152" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId153" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId154" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId155" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId156" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId157" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId158" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId159" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId160" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId161" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId162" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId163" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId164" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId165" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId166" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId167" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId168" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId169" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId170" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId171" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId172" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId173" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId174" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId175" display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId176" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId177" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId178" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId179" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId180" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId181" display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId182" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId183" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId184" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId185" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId186" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId187" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId188" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId189" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId190" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId191" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId192" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId193" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId194" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId195" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId196" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId197" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId198" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId199" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId200" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId201" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId202" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId203" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId204" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId205" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId206" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId207" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId208" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId209" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId210" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId211" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId212" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId213" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId214" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId215" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId216" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId217" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId218" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId219" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId220" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId221" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId222" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId223" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId224" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId225" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId226" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId227" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId228" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId229" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId230" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId231" display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId232" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId233" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId234" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId29" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId235" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId236" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId237" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId238" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId239" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId240" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId241" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId242" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId243" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId244" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId245" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId246" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId247" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId248" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId249" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId250" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId251" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId252" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId253" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId254" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId255" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId256" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId257" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId55" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId258" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId259" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId260" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId261" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId262" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId263" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId264" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId265" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId266" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId267" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId60" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId268" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId269" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId270" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId271" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId272" display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId273" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId274" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId275" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId276" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId277" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId278" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId279" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId280" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId281" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId282" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId283" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId284" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId285" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId286" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId287" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId288" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId289" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId290" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId291" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId292" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId293" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId294" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId295" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId296" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId297" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId154" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId298" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId299" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId300" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId301" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId302" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId303" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId304" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId305" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId306" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId307" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId149" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId308" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId309" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId310" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId242" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId311" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId312" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId313" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B357" r:id="rId314" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId315" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId316" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId317" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId245" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId318" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId319" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId320" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId321" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId322" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId323" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId324" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId325" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId326" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId327" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId328" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId329" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId330" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId331" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId332" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId333" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId334" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId335" display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId336" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId337" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId338" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId339" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId340" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId341" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId342" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId343" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId344" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId345" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId345" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId258" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId250" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId346" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId347" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B396" r:id="rId348" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B395" r:id="rId349" display="Vertex Cover Problem"/>
-    <hyperlink ref="B397" r:id="rId350" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId222" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId351" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId352" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId353" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId354" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId355" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId356" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId357" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId358" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId359" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId360" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId361" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId362" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId58" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId252" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId363" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId364" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId365" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId366" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId367" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId75" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId53" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId368" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId369" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId370" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId371" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId372" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId373" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId374" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId375" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId376" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId377" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId378" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId379" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId380" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId10" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId381" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId382" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId383" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId384" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId385" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId8" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId386" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId387" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId61" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId388" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId252" display="Partition problem"/>
-    <hyperlink ref="B451" r:id="rId66" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B450" r:id="rId389" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B452" r:id="rId390" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId391" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId392" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId393" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId394" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId25" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId395" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId396" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId397" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId57" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId398" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B469" r:id="rId399" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B468" r:id="rId400" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B467" r:id="rId401" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B466" r:id="rId402" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B465" r:id="rId403" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B464" r:id="rId404" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B463" r:id="rId405" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B472" r:id="rId406" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId407" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId408" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId409" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId410" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId411" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId412" display="Copy set bits in a range"/>
-    <hyperlink ref="B481" r:id="rId413" display="Power Set"/>
-    <hyperlink ref="B479" r:id="rId414" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId415" display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B356" r:id="rId416" display="Create a Graph, print it"/>
-    <hyperlink ref="B2" r:id="rId417" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId7"/>
+    <hyperlink ref="B13" r:id="rId8"/>
+    <hyperlink ref="B14" r:id="rId9"/>
+    <hyperlink ref="B15" r:id="rId10"/>
+    <hyperlink ref="B16" r:id="rId11"/>
+    <hyperlink ref="B17" r:id="rId12"/>
+    <hyperlink ref="B18" r:id="rId13"/>
+    <hyperlink ref="B19" r:id="rId14"/>
+    <hyperlink ref="B20" r:id="rId15"/>
+    <hyperlink ref="B21" r:id="rId16"/>
+    <hyperlink ref="B22" r:id="rId17"/>
+    <hyperlink ref="B23" r:id="rId18"/>
+    <hyperlink ref="B24" r:id="rId19"/>
+    <hyperlink ref="B25" r:id="rId20"/>
+    <hyperlink ref="B26" r:id="rId21"/>
+    <hyperlink ref="B27" r:id="rId22"/>
+    <hyperlink ref="B28" r:id="rId23"/>
+    <hyperlink ref="B29" r:id="rId24"/>
+    <hyperlink ref="B30" r:id="rId25"/>
+    <hyperlink ref="B31" r:id="rId26"/>
+    <hyperlink ref="B32" r:id="rId27"/>
+    <hyperlink ref="B33" r:id="rId28"/>
+    <hyperlink ref="B34" r:id="rId29"/>
+    <hyperlink ref="B35" r:id="rId30"/>
+    <hyperlink ref="B36" r:id="rId31"/>
+    <hyperlink ref="B37" r:id="rId32"/>
+    <hyperlink ref="B38" r:id="rId33"/>
+    <hyperlink ref="B39" r:id="rId34"/>
+    <hyperlink ref="B40" r:id="rId35"/>
+    <hyperlink ref="B41" r:id="rId36"/>
+    <hyperlink ref="B44" r:id="rId37"/>
+    <hyperlink ref="B45" r:id="rId38"/>
+    <hyperlink ref="B46" r:id="rId39"/>
+    <hyperlink ref="B47" r:id="rId40"/>
+    <hyperlink ref="B48" r:id="rId41"/>
+    <hyperlink ref="B49" r:id="rId42"/>
+    <hyperlink ref="B50" r:id="rId43"/>
+    <hyperlink ref="B51" r:id="rId44"/>
+    <hyperlink ref="B52" r:id="rId45"/>
+    <hyperlink ref="B53" r:id="rId46"/>
+    <hyperlink ref="B56" r:id="rId47"/>
+    <hyperlink ref="B57" r:id="rId48"/>
+    <hyperlink ref="B58" r:id="rId49"/>
+    <hyperlink ref="B60" r:id="rId50"/>
+    <hyperlink ref="B61" r:id="rId51"/>
+    <hyperlink ref="B62" r:id="rId52"/>
+    <hyperlink ref="B63" r:id="rId53"/>
+    <hyperlink ref="B64" r:id="rId54"/>
+    <hyperlink ref="B65" r:id="rId55"/>
+    <hyperlink ref="B66" r:id="rId56"/>
+    <hyperlink ref="B67" r:id="rId57"/>
+    <hyperlink ref="B68" r:id="rId58"/>
+    <hyperlink ref="B69" r:id="rId59"/>
+    <hyperlink ref="B70" r:id="rId60"/>
+    <hyperlink ref="B71" r:id="rId61"/>
+    <hyperlink ref="B72" r:id="rId62"/>
+    <hyperlink ref="B73" r:id="rId63"/>
+    <hyperlink ref="B74" r:id="rId64"/>
+    <hyperlink ref="B75" r:id="rId65"/>
+    <hyperlink ref="B76" r:id="rId66"/>
+    <hyperlink ref="B77" r:id="rId67"/>
+    <hyperlink ref="B78" r:id="rId68"/>
+    <hyperlink ref="B79" r:id="rId69"/>
+    <hyperlink ref="B80" r:id="rId70"/>
+    <hyperlink ref="B81" r:id="rId71"/>
+    <hyperlink ref="B82" r:id="rId72"/>
+    <hyperlink ref="B83" r:id="rId73"/>
+    <hyperlink ref="B84" r:id="rId74"/>
+    <hyperlink ref="B85" r:id="rId75"/>
+    <hyperlink ref="B86" r:id="rId76"/>
+    <hyperlink ref="B87" r:id="rId77"/>
+    <hyperlink ref="B88" r:id="rId78"/>
+    <hyperlink ref="B89" r:id="rId79"/>
+    <hyperlink ref="B90" r:id="rId80"/>
+    <hyperlink ref="B91" r:id="rId81"/>
+    <hyperlink ref="B92" r:id="rId82"/>
+    <hyperlink ref="B93" r:id="rId83"/>
+    <hyperlink ref="B94" r:id="rId84"/>
+    <hyperlink ref="B95" r:id="rId85"/>
+    <hyperlink ref="B96" r:id="rId86"/>
+    <hyperlink ref="B97" r:id="rId87"/>
+    <hyperlink ref="B98" r:id="rId88"/>
+    <hyperlink ref="B101" r:id="rId89"/>
+    <hyperlink ref="B102" r:id="rId90"/>
+    <hyperlink ref="B103" r:id="rId91"/>
+    <hyperlink ref="B104" r:id="rId92"/>
+    <hyperlink ref="B106" r:id="rId93"/>
+    <hyperlink ref="B107" r:id="rId94"/>
+    <hyperlink ref="B108" r:id="rId95"/>
+    <hyperlink ref="B109" r:id="rId96"/>
+    <hyperlink ref="B110" r:id="rId97"/>
+    <hyperlink ref="B111" r:id="rId98"/>
+    <hyperlink ref="B113" r:id="rId99"/>
+    <hyperlink ref="B114" r:id="rId100"/>
+    <hyperlink ref="B115" r:id="rId101"/>
+    <hyperlink ref="B116" r:id="rId102"/>
+    <hyperlink ref="B117" r:id="rId103"/>
+    <hyperlink ref="B118" r:id="rId104"/>
+    <hyperlink ref="B119" r:id="rId105"/>
+    <hyperlink ref="B120" r:id="rId106"/>
+    <hyperlink ref="B121" r:id="rId107"/>
+    <hyperlink ref="B122" r:id="rId108"/>
+    <hyperlink ref="B123" r:id="rId109"/>
+    <hyperlink ref="B124" r:id="rId110"/>
+    <hyperlink ref="B125" r:id="rId111"/>
+    <hyperlink ref="B126" r:id="rId112"/>
+    <hyperlink ref="B127" r:id="rId113"/>
+    <hyperlink ref="B128" r:id="rId114"/>
+    <hyperlink ref="B129" r:id="rId115"/>
+    <hyperlink ref="B130" r:id="rId116"/>
+    <hyperlink ref="B131" r:id="rId117"/>
+    <hyperlink ref="B132" r:id="rId118"/>
+    <hyperlink ref="B133" r:id="rId119"/>
+    <hyperlink ref="B134" r:id="rId120"/>
+    <hyperlink ref="B135" r:id="rId121"/>
+    <hyperlink ref="B136" r:id="rId122"/>
+    <hyperlink ref="B105" r:id="rId123"/>
+    <hyperlink ref="B112" r:id="rId124"/>
+    <hyperlink ref="B139" r:id="rId125"/>
+    <hyperlink ref="B140" r:id="rId126"/>
+    <hyperlink ref="B141" r:id="rId127"/>
+    <hyperlink ref="B142" r:id="rId128"/>
+    <hyperlink ref="B143" r:id="rId129"/>
+    <hyperlink ref="B144" r:id="rId130"/>
+    <hyperlink ref="B145" r:id="rId131"/>
+    <hyperlink ref="B146" r:id="rId132"/>
+    <hyperlink ref="B147" r:id="rId133"/>
+    <hyperlink ref="B148" r:id="rId134"/>
+    <hyperlink ref="B149" r:id="rId135"/>
+    <hyperlink ref="B150" r:id="rId136"/>
+    <hyperlink ref="B151" r:id="rId137"/>
+    <hyperlink ref="B152" r:id="rId138"/>
+    <hyperlink ref="B153" r:id="rId139"/>
+    <hyperlink ref="B154" r:id="rId140"/>
+    <hyperlink ref="B155" r:id="rId141"/>
+    <hyperlink ref="B156" r:id="rId142"/>
+    <hyperlink ref="B157" r:id="rId143"/>
+    <hyperlink ref="B158" r:id="rId144"/>
+    <hyperlink ref="B159" r:id="rId145"/>
+    <hyperlink ref="B160" r:id="rId146"/>
+    <hyperlink ref="B161" r:id="rId147"/>
+    <hyperlink ref="B162" r:id="rId148"/>
+    <hyperlink ref="B163" r:id="rId149"/>
+    <hyperlink ref="B166" r:id="rId150"/>
+    <hyperlink ref="B167" r:id="rId151"/>
+    <hyperlink ref="B168" r:id="rId152"/>
+    <hyperlink ref="B169" r:id="rId153"/>
+    <hyperlink ref="B170" r:id="rId154"/>
+    <hyperlink ref="B171" r:id="rId155"/>
+    <hyperlink ref="B172" r:id="rId156"/>
+    <hyperlink ref="B173" r:id="rId157"/>
+    <hyperlink ref="B174" r:id="rId158"/>
+    <hyperlink ref="B177" r:id="rId159"/>
+    <hyperlink ref="B178" r:id="rId160"/>
+    <hyperlink ref="B179" r:id="rId161"/>
+    <hyperlink ref="B180" r:id="rId162"/>
+    <hyperlink ref="B181" r:id="rId163"/>
+    <hyperlink ref="B182" r:id="rId164"/>
+    <hyperlink ref="B183" r:id="rId165"/>
+    <hyperlink ref="B184" r:id="rId166"/>
+    <hyperlink ref="B185" r:id="rId167"/>
+    <hyperlink ref="B186" r:id="rId168"/>
+    <hyperlink ref="B187" r:id="rId169"/>
+    <hyperlink ref="B188" r:id="rId170"/>
+    <hyperlink ref="B189" r:id="rId171"/>
+    <hyperlink ref="B190" r:id="rId172"/>
+    <hyperlink ref="B191" r:id="rId173"/>
+    <hyperlink ref="B192" r:id="rId174"/>
+    <hyperlink ref="B193" r:id="rId175"/>
+    <hyperlink ref="B194" r:id="rId176"/>
+    <hyperlink ref="B195" r:id="rId177"/>
+    <hyperlink ref="B196" r:id="rId178"/>
+    <hyperlink ref="B197" r:id="rId179"/>
+    <hyperlink ref="B198" r:id="rId180"/>
+    <hyperlink ref="B199" r:id="rId181"/>
+    <hyperlink ref="B200" r:id="rId182"/>
+    <hyperlink ref="B201" r:id="rId183"/>
+    <hyperlink ref="B202" r:id="rId184"/>
+    <hyperlink ref="B203" r:id="rId185"/>
+    <hyperlink ref="B204" r:id="rId186"/>
+    <hyperlink ref="B205" r:id="rId187"/>
+    <hyperlink ref="B206" r:id="rId188"/>
+    <hyperlink ref="B207" r:id="rId189"/>
+    <hyperlink ref="B208" r:id="rId190"/>
+    <hyperlink ref="B209" r:id="rId191"/>
+    <hyperlink ref="B210" r:id="rId192"/>
+    <hyperlink ref="B211" r:id="rId193"/>
+    <hyperlink ref="B214" r:id="rId194"/>
+    <hyperlink ref="B215" r:id="rId195"/>
+    <hyperlink ref="B216" r:id="rId196"/>
+    <hyperlink ref="B217" r:id="rId197"/>
+    <hyperlink ref="B218" r:id="rId198"/>
+    <hyperlink ref="B219" r:id="rId199"/>
+    <hyperlink ref="B220" r:id="rId200"/>
+    <hyperlink ref="B221" r:id="rId201"/>
+    <hyperlink ref="B222" r:id="rId202"/>
+    <hyperlink ref="B223" r:id="rId203"/>
+    <hyperlink ref="B224" r:id="rId204"/>
+    <hyperlink ref="B225" r:id="rId205"/>
+    <hyperlink ref="B226" r:id="rId206"/>
+    <hyperlink ref="B227" r:id="rId207"/>
+    <hyperlink ref="B228" r:id="rId208"/>
+    <hyperlink ref="B229" r:id="rId209"/>
+    <hyperlink ref="B230" r:id="rId210"/>
+    <hyperlink ref="B231" r:id="rId211"/>
+    <hyperlink ref="B232" r:id="rId212"/>
+    <hyperlink ref="B233" r:id="rId213"/>
+    <hyperlink ref="B234" r:id="rId214"/>
+    <hyperlink ref="B235" r:id="rId215"/>
+    <hyperlink ref="B238" r:id="rId216"/>
+    <hyperlink ref="B239" r:id="rId217"/>
+    <hyperlink ref="B240" r:id="rId218"/>
+    <hyperlink ref="B241" r:id="rId219"/>
+    <hyperlink ref="B242" r:id="rId220"/>
+    <hyperlink ref="B243" r:id="rId221"/>
+    <hyperlink ref="B244" r:id="rId222"/>
+    <hyperlink ref="B245" r:id="rId223"/>
+    <hyperlink ref="B246" r:id="rId224"/>
+    <hyperlink ref="B247" r:id="rId225"/>
+    <hyperlink ref="B248" r:id="rId226"/>
+    <hyperlink ref="B249" r:id="rId227"/>
+    <hyperlink ref="B250" r:id="rId228"/>
+    <hyperlink ref="B251" r:id="rId229"/>
+    <hyperlink ref="B252" r:id="rId230"/>
+    <hyperlink ref="B253" r:id="rId231"/>
+    <hyperlink ref="B254" r:id="rId232"/>
+    <hyperlink ref="B255" r:id="rId233"/>
+    <hyperlink ref="B256" r:id="rId234"/>
+    <hyperlink ref="B257" r:id="rId235"/>
+    <hyperlink ref="B258" r:id="rId236"/>
+    <hyperlink ref="B259" r:id="rId237"/>
+    <hyperlink ref="B260" r:id="rId238"/>
+    <hyperlink ref="B261" r:id="rId239"/>
+    <hyperlink ref="B262" r:id="rId240"/>
+    <hyperlink ref="B263" r:id="rId241"/>
+    <hyperlink ref="B264" r:id="rId242"/>
+    <hyperlink ref="B265" r:id="rId243"/>
+    <hyperlink ref="B266" r:id="rId244"/>
+    <hyperlink ref="B267" r:id="rId245"/>
+    <hyperlink ref="B268" r:id="rId246"/>
+    <hyperlink ref="B269" r:id="rId247"/>
+    <hyperlink ref="B270" r:id="rId248"/>
+    <hyperlink ref="B271" r:id="rId249"/>
+    <hyperlink ref="B272" r:id="rId250"/>
+    <hyperlink ref="B275" r:id="rId251"/>
+    <hyperlink ref="B276" r:id="rId252"/>
+    <hyperlink ref="B277" r:id="rId253"/>
+    <hyperlink ref="B278" r:id="rId254"/>
+    <hyperlink ref="B279" r:id="rId255"/>
+    <hyperlink ref="B280" r:id="rId256"/>
+    <hyperlink ref="B281" r:id="rId257"/>
+    <hyperlink ref="B282" r:id="rId258"/>
+    <hyperlink ref="B283" r:id="rId259"/>
+    <hyperlink ref="B284" r:id="rId260"/>
+    <hyperlink ref="B285" r:id="rId261"/>
+    <hyperlink ref="B286" r:id="rId262"/>
+    <hyperlink ref="B287" r:id="rId263"/>
+    <hyperlink ref="B288" r:id="rId264"/>
+    <hyperlink ref="B289" r:id="rId265"/>
+    <hyperlink ref="B290" r:id="rId266"/>
+    <hyperlink ref="B291" r:id="rId267"/>
+    <hyperlink ref="B292" r:id="rId268"/>
+    <hyperlink ref="B293" r:id="rId269"/>
+    <hyperlink ref="B296" r:id="rId270"/>
+    <hyperlink ref="B297" r:id="rId271"/>
+    <hyperlink ref="B298" r:id="rId272"/>
+    <hyperlink ref="B299" r:id="rId273"/>
+    <hyperlink ref="B300" r:id="rId274"/>
+    <hyperlink ref="B301" r:id="rId275"/>
+    <hyperlink ref="B302" r:id="rId276"/>
+    <hyperlink ref="B303" r:id="rId277"/>
+    <hyperlink ref="B304" r:id="rId278"/>
+    <hyperlink ref="B305" r:id="rId279"/>
+    <hyperlink ref="B306" r:id="rId280"/>
+    <hyperlink ref="B307" r:id="rId281"/>
+    <hyperlink ref="B308" r:id="rId282"/>
+    <hyperlink ref="B309" r:id="rId283"/>
+    <hyperlink ref="B310" r:id="rId284"/>
+    <hyperlink ref="B311" r:id="rId285"/>
+    <hyperlink ref="B312" r:id="rId286"/>
+    <hyperlink ref="B313" r:id="rId287"/>
+    <hyperlink ref="B314" r:id="rId288"/>
+    <hyperlink ref="B315" r:id="rId289"/>
+    <hyperlink ref="B316" r:id="rId290"/>
+    <hyperlink ref="B317" r:id="rId291"/>
+    <hyperlink ref="B318" r:id="rId292"/>
+    <hyperlink ref="B319" r:id="rId293"/>
+    <hyperlink ref="B320" r:id="rId294"/>
+    <hyperlink ref="B321" r:id="rId295"/>
+    <hyperlink ref="B322" r:id="rId296"/>
+    <hyperlink ref="B323" r:id="rId297"/>
+    <hyperlink ref="B324" r:id="rId298"/>
+    <hyperlink ref="B325" r:id="rId299"/>
+    <hyperlink ref="B326" r:id="rId300"/>
+    <hyperlink ref="B327" r:id="rId301"/>
+    <hyperlink ref="B328" r:id="rId302"/>
+    <hyperlink ref="B329" r:id="rId303"/>
+    <hyperlink ref="B330" r:id="rId304"/>
+    <hyperlink ref="B331" r:id="rId305"/>
+    <hyperlink ref="B332" r:id="rId306"/>
+    <hyperlink ref="B333" r:id="rId307"/>
+    <hyperlink ref="B336" r:id="rId308"/>
+    <hyperlink ref="B337" r:id="rId309"/>
+    <hyperlink ref="B338" r:id="rId310"/>
+    <hyperlink ref="B339" r:id="rId311"/>
+    <hyperlink ref="B340" r:id="rId312"/>
+    <hyperlink ref="B341" r:id="rId313"/>
+    <hyperlink ref="B342" r:id="rId314"/>
+    <hyperlink ref="B343" r:id="rId315"/>
+    <hyperlink ref="B344" r:id="rId316"/>
+    <hyperlink ref="B345" r:id="rId317"/>
+    <hyperlink ref="B346" r:id="rId318"/>
+    <hyperlink ref="B347" r:id="rId319"/>
+    <hyperlink ref="B348" r:id="rId320"/>
+    <hyperlink ref="B349" r:id="rId321"/>
+    <hyperlink ref="B350" r:id="rId322"/>
+    <hyperlink ref="B351" r:id="rId323"/>
+    <hyperlink ref="B352" r:id="rId324"/>
+    <hyperlink ref="B353" r:id="rId325"/>
+    <hyperlink ref="B357" r:id="rId326"/>
+    <hyperlink ref="B358" r:id="rId327"/>
+    <hyperlink ref="B359" r:id="rId328"/>
+    <hyperlink ref="B360" r:id="rId329"/>
+    <hyperlink ref="B361" r:id="rId330"/>
+    <hyperlink ref="B362" r:id="rId331"/>
+    <hyperlink ref="B363" r:id="rId332"/>
+    <hyperlink ref="B364" r:id="rId333"/>
+    <hyperlink ref="B365" r:id="rId334"/>
+    <hyperlink ref="B366" r:id="rId335"/>
+    <hyperlink ref="B367" r:id="rId336"/>
+    <hyperlink ref="B368" r:id="rId337"/>
+    <hyperlink ref="B369" r:id="rId338"/>
+    <hyperlink ref="B370" r:id="rId339"/>
+    <hyperlink ref="B371" r:id="rId340"/>
+    <hyperlink ref="B372" r:id="rId341"/>
+    <hyperlink ref="B373" r:id="rId342"/>
+    <hyperlink ref="B374" r:id="rId343"/>
+    <hyperlink ref="B375" r:id="rId344"/>
+    <hyperlink ref="B376" r:id="rId345"/>
+    <hyperlink ref="B377" r:id="rId346"/>
+    <hyperlink ref="B378" r:id="rId347"/>
+    <hyperlink ref="B379" r:id="rId348"/>
+    <hyperlink ref="B380" r:id="rId349"/>
+    <hyperlink ref="B381" r:id="rId350"/>
+    <hyperlink ref="B382" r:id="rId351"/>
+    <hyperlink ref="B383" r:id="rId352"/>
+    <hyperlink ref="B384" r:id="rId353"/>
+    <hyperlink ref="B385" r:id="rId354"/>
+    <hyperlink ref="B386" r:id="rId355"/>
+    <hyperlink ref="B387" r:id="rId356"/>
+    <hyperlink ref="B388" r:id="rId357"/>
+    <hyperlink ref="B389" r:id="rId358"/>
+    <hyperlink ref="B390" r:id="rId359"/>
+    <hyperlink ref="B391" r:id="rId360"/>
+    <hyperlink ref="B392" r:id="rId361"/>
+    <hyperlink ref="B393" r:id="rId362"/>
+    <hyperlink ref="B394" r:id="rId363"/>
+    <hyperlink ref="B396" r:id="rId364"/>
+    <hyperlink ref="B395" r:id="rId365"/>
+    <hyperlink ref="B397" r:id="rId366"/>
+    <hyperlink ref="B398" r:id="rId367"/>
+    <hyperlink ref="B399" r:id="rId368"/>
+    <hyperlink ref="B402" r:id="rId369"/>
+    <hyperlink ref="B403" r:id="rId370"/>
+    <hyperlink ref="B404" r:id="rId371"/>
+    <hyperlink ref="B405" r:id="rId372"/>
+    <hyperlink ref="B406" r:id="rId373"/>
+    <hyperlink ref="B407" r:id="rId374"/>
+    <hyperlink ref="B410" r:id="rId375"/>
+    <hyperlink ref="B411" r:id="rId376"/>
+    <hyperlink ref="B412" r:id="rId377"/>
+    <hyperlink ref="B413" r:id="rId378"/>
+    <hyperlink ref="B414" r:id="rId379"/>
+    <hyperlink ref="B415" r:id="rId380"/>
+    <hyperlink ref="B416" r:id="rId381"/>
+    <hyperlink ref="B417" r:id="rId382"/>
+    <hyperlink ref="B418" r:id="rId383"/>
+    <hyperlink ref="B419" r:id="rId384"/>
+    <hyperlink ref="B420" r:id="rId385"/>
+    <hyperlink ref="B421" r:id="rId386"/>
+    <hyperlink ref="B422" r:id="rId387"/>
+    <hyperlink ref="B423" r:id="rId388"/>
+    <hyperlink ref="B424" r:id="rId389"/>
+    <hyperlink ref="B425" r:id="rId390"/>
+    <hyperlink ref="B426" r:id="rId391"/>
+    <hyperlink ref="B427" r:id="rId392"/>
+    <hyperlink ref="B428" r:id="rId393"/>
+    <hyperlink ref="B429" r:id="rId394"/>
+    <hyperlink ref="B430" r:id="rId395"/>
+    <hyperlink ref="B431" r:id="rId396"/>
+    <hyperlink ref="B432" r:id="rId397"/>
+    <hyperlink ref="B433" r:id="rId398"/>
+    <hyperlink ref="B434" r:id="rId399"/>
+    <hyperlink ref="B435" r:id="rId400"/>
+    <hyperlink ref="B436" r:id="rId401"/>
+    <hyperlink ref="B437" r:id="rId402"/>
+    <hyperlink ref="B438" r:id="rId403"/>
+    <hyperlink ref="B439" r:id="rId404"/>
+    <hyperlink ref="B440" r:id="rId405"/>
+    <hyperlink ref="B441" r:id="rId406"/>
+    <hyperlink ref="B442" r:id="rId407"/>
+    <hyperlink ref="B443" r:id="rId408"/>
+    <hyperlink ref="B444" r:id="rId409"/>
+    <hyperlink ref="B445" r:id="rId410"/>
+    <hyperlink ref="B446" r:id="rId411"/>
+    <hyperlink ref="B447" r:id="rId412"/>
+    <hyperlink ref="B448" r:id="rId413"/>
+    <hyperlink ref="B449" r:id="rId414"/>
+    <hyperlink ref="B451" r:id="rId415"/>
+    <hyperlink ref="B450" r:id="rId416"/>
+    <hyperlink ref="B452" r:id="rId417"/>
+    <hyperlink ref="B453" r:id="rId418"/>
+    <hyperlink ref="B454" r:id="rId419"/>
+    <hyperlink ref="B455" r:id="rId420"/>
+    <hyperlink ref="B456" r:id="rId421"/>
+    <hyperlink ref="B457" r:id="rId422"/>
+    <hyperlink ref="B458" r:id="rId423"/>
+    <hyperlink ref="B459" r:id="rId424"/>
+    <hyperlink ref="B460" r:id="rId425"/>
+    <hyperlink ref="B461" r:id="rId426"/>
+    <hyperlink ref="B462" r:id="rId427"/>
+    <hyperlink ref="B469" r:id="rId428"/>
+    <hyperlink ref="B468" r:id="rId429"/>
+    <hyperlink ref="B467" r:id="rId430"/>
+    <hyperlink ref="B466" r:id="rId431"/>
+    <hyperlink ref="B465" r:id="rId432"/>
+    <hyperlink ref="B464" r:id="rId433"/>
+    <hyperlink ref="B463" r:id="rId434"/>
+    <hyperlink ref="B472" r:id="rId435"/>
+    <hyperlink ref="B473" r:id="rId436"/>
+    <hyperlink ref="B474" r:id="rId437"/>
+    <hyperlink ref="B475" r:id="rId438"/>
+    <hyperlink ref="B476" r:id="rId439"/>
+    <hyperlink ref="B477" r:id="rId440"/>
+    <hyperlink ref="B478" r:id="rId441"/>
+    <hyperlink ref="B481" r:id="rId442"/>
+    <hyperlink ref="B479" r:id="rId443"/>
+    <hyperlink ref="B480" r:id="rId444"/>
+    <hyperlink ref="B356" r:id="rId445"/>
+    <hyperlink ref="B2" r:id="rId446"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>